--- a/MAT.xlsx
+++ b/MAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EBBFC5-60EB-43A2-B301-B1B2E83A553A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AE40B3-ADF8-4FA8-A4D4-54EEE9FD08D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{0375D482-E6D0-4B87-8D3C-6E1C384A01FD}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{0375D482-E6D0-4B87-8D3C-6E1C384A01FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,14 +205,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -229,12 +227,25 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -373,33 +384,32 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -738,35 +748,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C002F763-855F-442D-9005-7395BE77C34B}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>18.07</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="3">
@@ -776,11 +787,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="3">
@@ -788,11 +799,11 @@
         <v>6087.7829999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="3">
@@ -802,8 +813,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="3">
@@ -813,15 +824,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="F7" t="s">
+      <c r="D7" s="7"/>
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="3">
@@ -829,7 +840,7 @@
         <v>7697.5109999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
@@ -838,32 +849,32 @@
       </c>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -875,24 +886,25 @@
   <dimension ref="A1:AC561"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -918,8 +930,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="3"/>
@@ -940,8 +952,8 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="3"/>
@@ -962,37 +974,37 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17">
         <v>814.57899999999995</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="17">
         <v>1918.788</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17">
         <v>809.50800000000004</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="17">
         <v>1843.904</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="3"/>
@@ -1031,8 +1043,8 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="3">
@@ -1087,8 +1099,8 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="3"/>
@@ -1127,8 +1139,8 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="3"/>
@@ -1167,8 +1179,8 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="3">
@@ -1223,8 +1235,8 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="3"/>
@@ -1263,8 +1275,8 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="3"/>
@@ -1303,8 +1315,8 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="3"/>
@@ -1343,8 +1355,8 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="3">
@@ -1399,8 +1411,8 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="3"/>
@@ -1439,8 +1451,8 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="3"/>
@@ -1479,8 +1491,8 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="3">
@@ -1535,7 +1547,7 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1564,39 +1576,39 @@
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2" t="e">
+      <c r="C19" s="18" t="e">
         <f t="shared" ref="C19:D19" si="8">+C17/C20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="18">
         <f t="shared" si="8"/>
         <v>-0.29996731860416626</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="18">
         <f>+E17/E20</f>
         <v>0.41316827573353976</v>
       </c>
-      <c r="F19" s="2" t="e">
+      <c r="F19" s="18" t="e">
         <f t="shared" ref="F19:J19" si="9">+F17/F20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="2" t="e">
+      <c r="G19" s="18" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="18">
         <f t="shared" si="9"/>
         <v>-8.1527755356195594E-2</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="18">
         <f t="shared" si="9"/>
         <v>1.0982631341447946</v>
       </c>
-      <c r="J19" s="2" t="e">
+      <c r="J19" s="18" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -1620,8 +1632,8 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
@@ -1660,7 +1672,7 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1689,27 +1701,27 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="7" t="e">
+      <c r="G22" s="19" t="e">
         <f t="shared" ref="G22:H24" si="10">+G3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="19">
         <f t="shared" si="10"/>
         <v>1.5515870822936373E-2</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="19">
         <f>+I3/E3-1</f>
         <v>-3.3717798599952387E-2</v>
       </c>
-      <c r="J22" s="7" t="e">
+      <c r="J22" s="19" t="e">
         <f t="shared" ref="J22" si="11">+J3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -1733,27 +1745,27 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="7" t="e">
+      <c r="G23" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="19">
         <f t="shared" si="10"/>
         <v>-3.5952489588570669E-2</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="19">
         <f t="shared" ref="I23:J24" si="12">+I4/E4-1</f>
         <v>-4.6915953963776902E-2</v>
       </c>
-      <c r="J23" s="7" t="e">
+      <c r="J23" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -1777,27 +1789,27 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="7" t="e">
+      <c r="G24" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="19">
         <f t="shared" si="10"/>
         <v>-6.2253016588936783E-3</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="19">
         <f t="shared" si="12"/>
         <v>-3.9026718949670358E-2</v>
       </c>
-      <c r="J24" s="7" t="e">
+      <c r="J24" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -1821,39 +1833,39 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="7" t="e">
-        <f t="shared" ref="C25:J25" si="13">+C7/C5</f>
+      <c r="C25" s="19" t="e">
+        <f t="shared" ref="C25:H25" si="13">+C7/C5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="19">
         <f t="shared" si="13"/>
         <v>0.3999452477905765</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="19">
         <f t="shared" si="13"/>
         <v>0.50966234935803223</v>
       </c>
-      <c r="F25" s="7" t="e">
+      <c r="F25" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="7" t="e">
+      <c r="G25" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="19">
         <f t="shared" si="13"/>
         <v>0.48037820503318068</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="19">
         <f>+I7/I5</f>
         <v>0.53093653465690183</v>
       </c>
-      <c r="J25" s="7" t="e">
+      <c r="J25" s="19" t="e">
         <f t="shared" ref="J25" si="14">+J7/J5</f>
         <v>#DIV/0!</v>
       </c>
@@ -1877,39 +1889,39 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="7" t="e">
-        <f t="shared" ref="C26:J26" si="15">+C10/C5</f>
+      <c r="C26" s="19" t="e">
+        <f t="shared" ref="C26:H26" si="15">+C10/C5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="19">
         <f t="shared" si="15"/>
         <v>-0.14122264384424346</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="19">
         <f t="shared" si="15"/>
         <v>0.24695693323076859</v>
       </c>
-      <c r="F26" s="7" t="e">
+      <c r="F26" s="19" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="7" t="e">
+      <c r="G26" s="19" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="19">
         <f t="shared" si="15"/>
         <v>-4.3876033343709972E-2</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="19">
         <f>+I10/I5</f>
         <v>0.26484079431467145</v>
       </c>
-      <c r="J26" s="7" t="e">
+      <c r="J26" s="19" t="e">
         <f t="shared" ref="J26" si="16">+J10/J5</f>
         <v>#DIV/0!</v>
       </c>
@@ -1933,39 +1945,39 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="7" t="e">
-        <f t="shared" ref="C27:J27" si="17">+C15/C14</f>
+      <c r="C27" s="19" t="e">
+        <f t="shared" ref="C27:H27" si="17">+C15/C14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="19">
         <f t="shared" si="17"/>
         <v>0.19535189968670189</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="19">
         <f t="shared" si="17"/>
         <v>0.68727088526600633</v>
       </c>
-      <c r="F27" s="7" t="e">
+      <c r="F27" s="19" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="7" t="e">
+      <c r="G27" s="19" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="19">
         <f t="shared" si="17"/>
         <v>0.38565704533649942</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="19">
         <f>+I15/I14</f>
         <v>0.22547018005813252</v>
       </c>
-      <c r="J27" s="7" t="e">
+      <c r="J27" s="19" t="e">
         <f t="shared" ref="J27" si="18">+J15/J14</f>
         <v>#DIV/0!</v>
       </c>
@@ -1989,7 +2001,7 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2018,7 +2030,7 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2047,7 +2059,7 @@
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2076,7 +2088,7 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2105,7 +2117,7 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2134,7 +2146,7 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row r="33" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2163,7 +2175,7 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
     </row>
-    <row r="34" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2192,7 +2204,7 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
     </row>
-    <row r="35" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2221,7 +2233,7 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
     </row>
-    <row r="36" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2250,7 +2262,7 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2279,7 +2291,7 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
     </row>
-    <row r="38" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2308,7 +2320,7 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
     </row>
-    <row r="39" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2337,7 +2349,7 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
     </row>
-    <row r="40" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2366,7 +2378,7 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
     </row>
-    <row r="41" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2395,7 +2407,7 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
     </row>
-    <row r="42" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2424,7 +2436,7 @@
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
     </row>
-    <row r="43" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2453,7 +2465,7 @@
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
     </row>
-    <row r="44" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2482,7 +2494,7 @@
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
     </row>
-    <row r="45" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2511,7 +2523,7 @@
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
     </row>
-    <row r="46" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2540,7 +2552,7 @@
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
     </row>
-    <row r="47" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2569,7 +2581,7 @@
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
     </row>
-    <row r="48" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2598,7 +2610,7 @@
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2627,7 +2639,7 @@
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2656,7 +2668,7 @@
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
     </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2685,7 +2697,7 @@
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
     </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2714,7 +2726,7 @@
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2743,7 +2755,7 @@
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
     </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2772,7 +2784,7 @@
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2801,7 +2813,7 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
     </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -2830,7 +2842,7 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
     </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2859,7 +2871,7 @@
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -2888,7 +2900,7 @@
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -2917,7 +2929,7 @@
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -2946,7 +2958,7 @@
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2975,7 +2987,7 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3004,7 +3016,7 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3033,7 +3045,7 @@
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
     </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3062,7 +3074,7 @@
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
     </row>
-    <row r="65" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -3091,7 +3103,7 @@
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
     </row>
-    <row r="66" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3120,7 +3132,7 @@
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
     </row>
-    <row r="67" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3149,7 +3161,7 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
     </row>
-    <row r="68" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -3178,7 +3190,7 @@
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
     </row>
-    <row r="69" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -3207,7 +3219,7 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
     </row>
-    <row r="70" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3236,7 +3248,7 @@
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
     </row>
-    <row r="71" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -3265,7 +3277,7 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
     </row>
-    <row r="72" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -3294,7 +3306,7 @@
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
     </row>
-    <row r="73" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -3323,7 +3335,7 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
     </row>
-    <row r="74" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -3352,7 +3364,7 @@
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
     </row>
-    <row r="75" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -3381,7 +3393,7 @@
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
     </row>
-    <row r="76" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -3410,7 +3422,7 @@
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
     </row>
-    <row r="77" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -3439,7 +3451,7 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
     </row>
-    <row r="78" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -3468,7 +3480,7 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
     </row>
-    <row r="79" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -3497,7 +3509,7 @@
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
     </row>
-    <row r="80" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -3526,7 +3538,7 @@
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -3555,7 +3567,7 @@
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -3584,7 +3596,7 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
     </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -3613,7 +3625,7 @@
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3642,7 +3654,7 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
     </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -3671,7 +3683,7 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
     </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -3700,7 +3712,7 @@
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
     </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -3729,7 +3741,7 @@
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
     </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -3758,7 +3770,7 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
     </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -3787,7 +3799,7 @@
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -3816,7 +3828,7 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
     </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -3845,7 +3857,7 @@
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -3874,7 +3886,7 @@
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
     </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -3903,7 +3915,7 @@
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
     </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -3932,7 +3944,7 @@
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -3961,7 +3973,7 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
     </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -3990,7 +4002,7 @@
       <c r="AB96" s="3"/>
       <c r="AC96" s="3"/>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -4019,7 +4031,7 @@
       <c r="AB97" s="3"/>
       <c r="AC97" s="3"/>
     </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -4048,7 +4060,7 @@
       <c r="AB98" s="3"/>
       <c r="AC98" s="3"/>
     </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -4077,7 +4089,7 @@
       <c r="AB99" s="3"/>
       <c r="AC99" s="3"/>
     </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -4106,7 +4118,7 @@
       <c r="AB100" s="3"/>
       <c r="AC100" s="3"/>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -4135,7 +4147,7 @@
       <c r="AB101" s="3"/>
       <c r="AC101" s="3"/>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -4164,7 +4176,7 @@
       <c r="AB102" s="3"/>
       <c r="AC102" s="3"/>
     </row>
-    <row r="103" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -4193,7 +4205,7 @@
       <c r="AB103" s="3"/>
       <c r="AC103" s="3"/>
     </row>
-    <row r="104" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -4222,7 +4234,7 @@
       <c r="AB104" s="3"/>
       <c r="AC104" s="3"/>
     </row>
-    <row r="105" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -4251,7 +4263,7 @@
       <c r="AB105" s="3"/>
       <c r="AC105" s="3"/>
     </row>
-    <row r="106" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -4280,7 +4292,7 @@
       <c r="AB106" s="3"/>
       <c r="AC106" s="3"/>
     </row>
-    <row r="107" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -4309,7 +4321,7 @@
       <c r="AB107" s="3"/>
       <c r="AC107" s="3"/>
     </row>
-    <row r="108" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -4338,7 +4350,7 @@
       <c r="AB108" s="3"/>
       <c r="AC108" s="3"/>
     </row>
-    <row r="109" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -4367,7 +4379,7 @@
       <c r="AB109" s="3"/>
       <c r="AC109" s="3"/>
     </row>
-    <row r="110" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -4396,7 +4408,7 @@
       <c r="AB110" s="3"/>
       <c r="AC110" s="3"/>
     </row>
-    <row r="111" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -4425,7 +4437,7 @@
       <c r="AB111" s="3"/>
       <c r="AC111" s="3"/>
     </row>
-    <row r="112" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -4454,7 +4466,7 @@
       <c r="AB112" s="3"/>
       <c r="AC112" s="3"/>
     </row>
-    <row r="113" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -4483,7 +4495,7 @@
       <c r="AB113" s="3"/>
       <c r="AC113" s="3"/>
     </row>
-    <row r="114" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -4512,7 +4524,7 @@
       <c r="AB114" s="3"/>
       <c r="AC114" s="3"/>
     </row>
-    <row r="115" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -4541,7 +4553,7 @@
       <c r="AB115" s="3"/>
       <c r="AC115" s="3"/>
     </row>
-    <row r="116" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -4570,7 +4582,7 @@
       <c r="AB116" s="3"/>
       <c r="AC116" s="3"/>
     </row>
-    <row r="117" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -4599,7 +4611,7 @@
       <c r="AB117" s="3"/>
       <c r="AC117" s="3"/>
     </row>
-    <row r="118" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -4628,7 +4640,7 @@
       <c r="AB118" s="3"/>
       <c r="AC118" s="3"/>
     </row>
-    <row r="119" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -4657,7 +4669,7 @@
       <c r="AB119" s="3"/>
       <c r="AC119" s="3"/>
     </row>
-    <row r="120" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -4686,7 +4698,7 @@
       <c r="AB120" s="3"/>
       <c r="AC120" s="3"/>
     </row>
-    <row r="121" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -4715,7 +4727,7 @@
       <c r="AB121" s="3"/>
       <c r="AC121" s="3"/>
     </row>
-    <row r="122" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -4744,7 +4756,7 @@
       <c r="AB122" s="3"/>
       <c r="AC122" s="3"/>
     </row>
-    <row r="123" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -4773,7 +4785,7 @@
       <c r="AB123" s="3"/>
       <c r="AC123" s="3"/>
     </row>
-    <row r="124" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -4802,7 +4814,7 @@
       <c r="AB124" s="3"/>
       <c r="AC124" s="3"/>
     </row>
-    <row r="125" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -4831,7 +4843,7 @@
       <c r="AB125" s="3"/>
       <c r="AC125" s="3"/>
     </row>
-    <row r="126" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -4860,7 +4872,7 @@
       <c r="AB126" s="3"/>
       <c r="AC126" s="3"/>
     </row>
-    <row r="127" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -4889,7 +4901,7 @@
       <c r="AB127" s="3"/>
       <c r="AC127" s="3"/>
     </row>
-    <row r="128" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -4918,7 +4930,7 @@
       <c r="AB128" s="3"/>
       <c r="AC128" s="3"/>
     </row>
-    <row r="129" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -4947,7 +4959,7 @@
       <c r="AB129" s="3"/>
       <c r="AC129" s="3"/>
     </row>
-    <row r="130" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -4976,7 +4988,7 @@
       <c r="AB130" s="3"/>
       <c r="AC130" s="3"/>
     </row>
-    <row r="131" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -5005,7 +5017,7 @@
       <c r="AB131" s="3"/>
       <c r="AC131" s="3"/>
     </row>
-    <row r="132" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -5034,7 +5046,7 @@
       <c r="AB132" s="3"/>
       <c r="AC132" s="3"/>
     </row>
-    <row r="133" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -5063,7 +5075,7 @@
       <c r="AB133" s="3"/>
       <c r="AC133" s="3"/>
     </row>
-    <row r="134" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -5092,7 +5104,7 @@
       <c r="AB134" s="3"/>
       <c r="AC134" s="3"/>
     </row>
-    <row r="135" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -5121,7 +5133,7 @@
       <c r="AB135" s="3"/>
       <c r="AC135" s="3"/>
     </row>
-    <row r="136" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -5150,7 +5162,7 @@
       <c r="AB136" s="3"/>
       <c r="AC136" s="3"/>
     </row>
-    <row r="137" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -5179,7 +5191,7 @@
       <c r="AB137" s="3"/>
       <c r="AC137" s="3"/>
     </row>
-    <row r="138" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -5208,7 +5220,7 @@
       <c r="AB138" s="3"/>
       <c r="AC138" s="3"/>
     </row>
-    <row r="139" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -5237,7 +5249,7 @@
       <c r="AB139" s="3"/>
       <c r="AC139" s="3"/>
     </row>
-    <row r="140" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -5266,7 +5278,7 @@
       <c r="AB140" s="3"/>
       <c r="AC140" s="3"/>
     </row>
-    <row r="141" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -5295,7 +5307,7 @@
       <c r="AB141" s="3"/>
       <c r="AC141" s="3"/>
     </row>
-    <row r="142" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -5324,7 +5336,7 @@
       <c r="AB142" s="3"/>
       <c r="AC142" s="3"/>
     </row>
-    <row r="143" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -5353,7 +5365,7 @@
       <c r="AB143" s="3"/>
       <c r="AC143" s="3"/>
     </row>
-    <row r="144" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -5382,7 +5394,7 @@
       <c r="AB144" s="3"/>
       <c r="AC144" s="3"/>
     </row>
-    <row r="145" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -5411,7 +5423,7 @@
       <c r="AB145" s="3"/>
       <c r="AC145" s="3"/>
     </row>
-    <row r="146" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -5440,7 +5452,7 @@
       <c r="AB146" s="3"/>
       <c r="AC146" s="3"/>
     </row>
-    <row r="147" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -5469,7 +5481,7 @@
       <c r="AB147" s="3"/>
       <c r="AC147" s="3"/>
     </row>
-    <row r="148" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -5498,7 +5510,7 @@
       <c r="AB148" s="3"/>
       <c r="AC148" s="3"/>
     </row>
-    <row r="149" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -5527,7 +5539,7 @@
       <c r="AB149" s="3"/>
       <c r="AC149" s="3"/>
     </row>
-    <row r="150" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -5556,7 +5568,7 @@
       <c r="AB150" s="3"/>
       <c r="AC150" s="3"/>
     </row>
-    <row r="151" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -5585,7 +5597,7 @@
       <c r="AB151" s="3"/>
       <c r="AC151" s="3"/>
     </row>
-    <row r="152" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -5614,7 +5626,7 @@
       <c r="AB152" s="3"/>
       <c r="AC152" s="3"/>
     </row>
-    <row r="153" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -5643,7 +5655,7 @@
       <c r="AB153" s="3"/>
       <c r="AC153" s="3"/>
     </row>
-    <row r="154" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -5672,7 +5684,7 @@
       <c r="AB154" s="3"/>
       <c r="AC154" s="3"/>
     </row>
-    <row r="155" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -5701,7 +5713,7 @@
       <c r="AB155" s="3"/>
       <c r="AC155" s="3"/>
     </row>
-    <row r="156" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -5730,7 +5742,7 @@
       <c r="AB156" s="3"/>
       <c r="AC156" s="3"/>
     </row>
-    <row r="157" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -5759,7 +5771,7 @@
       <c r="AB157" s="3"/>
       <c r="AC157" s="3"/>
     </row>
-    <row r="158" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -5788,7 +5800,7 @@
       <c r="AB158" s="3"/>
       <c r="AC158" s="3"/>
     </row>
-    <row r="159" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -5817,7 +5829,7 @@
       <c r="AB159" s="3"/>
       <c r="AC159" s="3"/>
     </row>
-    <row r="160" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -5846,7 +5858,7 @@
       <c r="AB160" s="3"/>
       <c r="AC160" s="3"/>
     </row>
-    <row r="161" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -5875,7 +5887,7 @@
       <c r="AB161" s="3"/>
       <c r="AC161" s="3"/>
     </row>
-    <row r="162" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -5904,7 +5916,7 @@
       <c r="AB162" s="3"/>
       <c r="AC162" s="3"/>
     </row>
-    <row r="163" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -5933,7 +5945,7 @@
       <c r="AB163" s="3"/>
       <c r="AC163" s="3"/>
     </row>
-    <row r="164" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -5962,7 +5974,7 @@
       <c r="AB164" s="3"/>
       <c r="AC164" s="3"/>
     </row>
-    <row r="165" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -5991,7 +6003,7 @@
       <c r="AB165" s="3"/>
       <c r="AC165" s="3"/>
     </row>
-    <row r="166" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -6020,7 +6032,7 @@
       <c r="AB166" s="3"/>
       <c r="AC166" s="3"/>
     </row>
-    <row r="167" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -6049,7 +6061,7 @@
       <c r="AB167" s="3"/>
       <c r="AC167" s="3"/>
     </row>
-    <row r="168" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -6078,7 +6090,7 @@
       <c r="AB168" s="3"/>
       <c r="AC168" s="3"/>
     </row>
-    <row r="169" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -6107,7 +6119,7 @@
       <c r="AB169" s="3"/>
       <c r="AC169" s="3"/>
     </row>
-    <row r="170" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -6136,7 +6148,7 @@
       <c r="AB170" s="3"/>
       <c r="AC170" s="3"/>
     </row>
-    <row r="171" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -6165,7 +6177,7 @@
       <c r="AB171" s="3"/>
       <c r="AC171" s="3"/>
     </row>
-    <row r="172" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -6194,7 +6206,7 @@
       <c r="AB172" s="3"/>
       <c r="AC172" s="3"/>
     </row>
-    <row r="173" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -6223,7 +6235,7 @@
       <c r="AB173" s="3"/>
       <c r="AC173" s="3"/>
     </row>
-    <row r="174" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -6252,7 +6264,7 @@
       <c r="AB174" s="3"/>
       <c r="AC174" s="3"/>
     </row>
-    <row r="175" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -6281,7 +6293,7 @@
       <c r="AB175" s="3"/>
       <c r="AC175" s="3"/>
     </row>
-    <row r="176" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -6310,7 +6322,7 @@
       <c r="AB176" s="3"/>
       <c r="AC176" s="3"/>
     </row>
-    <row r="177" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -6339,7 +6351,7 @@
       <c r="AB177" s="3"/>
       <c r="AC177" s="3"/>
     </row>
-    <row r="178" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -6368,7 +6380,7 @@
       <c r="AB178" s="3"/>
       <c r="AC178" s="3"/>
     </row>
-    <row r="179" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -6397,7 +6409,7 @@
       <c r="AB179" s="3"/>
       <c r="AC179" s="3"/>
     </row>
-    <row r="180" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -6426,7 +6438,7 @@
       <c r="AB180" s="3"/>
       <c r="AC180" s="3"/>
     </row>
-    <row r="181" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -6455,7 +6467,7 @@
       <c r="AB181" s="3"/>
       <c r="AC181" s="3"/>
     </row>
-    <row r="182" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -6484,7 +6496,7 @@
       <c r="AB182" s="3"/>
       <c r="AC182" s="3"/>
     </row>
-    <row r="183" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -6513,7 +6525,7 @@
       <c r="AB183" s="3"/>
       <c r="AC183" s="3"/>
     </row>
-    <row r="184" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -6542,7 +6554,7 @@
       <c r="AB184" s="3"/>
       <c r="AC184" s="3"/>
     </row>
-    <row r="185" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -6571,7 +6583,7 @@
       <c r="AB185" s="3"/>
       <c r="AC185" s="3"/>
     </row>
-    <row r="186" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -6600,7 +6612,7 @@
       <c r="AB186" s="3"/>
       <c r="AC186" s="3"/>
     </row>
-    <row r="187" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -6629,7 +6641,7 @@
       <c r="AB187" s="3"/>
       <c r="AC187" s="3"/>
     </row>
-    <row r="188" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -6658,7 +6670,7 @@
       <c r="AB188" s="3"/>
       <c r="AC188" s="3"/>
     </row>
-    <row r="189" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -6687,7 +6699,7 @@
       <c r="AB189" s="3"/>
       <c r="AC189" s="3"/>
     </row>
-    <row r="190" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -6716,7 +6728,7 @@
       <c r="AB190" s="3"/>
       <c r="AC190" s="3"/>
     </row>
-    <row r="191" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -6745,7 +6757,7 @@
       <c r="AB191" s="3"/>
       <c r="AC191" s="3"/>
     </row>
-    <row r="192" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -6774,7 +6786,7 @@
       <c r="AB192" s="3"/>
       <c r="AC192" s="3"/>
     </row>
-    <row r="193" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -6803,7 +6815,7 @@
       <c r="AB193" s="3"/>
       <c r="AC193" s="3"/>
     </row>
-    <row r="194" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -6832,7 +6844,7 @@
       <c r="AB194" s="3"/>
       <c r="AC194" s="3"/>
     </row>
-    <row r="195" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -6861,7 +6873,7 @@
       <c r="AB195" s="3"/>
       <c r="AC195" s="3"/>
     </row>
-    <row r="196" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -6890,7 +6902,7 @@
       <c r="AB196" s="3"/>
       <c r="AC196" s="3"/>
     </row>
-    <row r="197" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -6919,7 +6931,7 @@
       <c r="AB197" s="3"/>
       <c r="AC197" s="3"/>
     </row>
-    <row r="198" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -6948,7 +6960,7 @@
       <c r="AB198" s="3"/>
       <c r="AC198" s="3"/>
     </row>
-    <row r="199" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -6977,7 +6989,7 @@
       <c r="AB199" s="3"/>
       <c r="AC199" s="3"/>
     </row>
-    <row r="200" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -7006,7 +7018,7 @@
       <c r="AB200" s="3"/>
       <c r="AC200" s="3"/>
     </row>
-    <row r="201" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -7035,7 +7047,7 @@
       <c r="AB201" s="3"/>
       <c r="AC201" s="3"/>
     </row>
-    <row r="202" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -7064,7 +7076,7 @@
       <c r="AB202" s="3"/>
       <c r="AC202" s="3"/>
     </row>
-    <row r="203" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -7093,7 +7105,7 @@
       <c r="AB203" s="3"/>
       <c r="AC203" s="3"/>
     </row>
-    <row r="204" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -7122,7 +7134,7 @@
       <c r="AB204" s="3"/>
       <c r="AC204" s="3"/>
     </row>
-    <row r="205" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -7151,7 +7163,7 @@
       <c r="AB205" s="3"/>
       <c r="AC205" s="3"/>
     </row>
-    <row r="206" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -7180,7 +7192,7 @@
       <c r="AB206" s="3"/>
       <c r="AC206" s="3"/>
     </row>
-    <row r="207" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -7209,7 +7221,7 @@
       <c r="AB207" s="3"/>
       <c r="AC207" s="3"/>
     </row>
-    <row r="208" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -7238,7 +7250,7 @@
       <c r="AB208" s="3"/>
       <c r="AC208" s="3"/>
     </row>
-    <row r="209" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -7267,7 +7279,7 @@
       <c r="AB209" s="3"/>
       <c r="AC209" s="3"/>
     </row>
-    <row r="210" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -7296,7 +7308,7 @@
       <c r="AB210" s="3"/>
       <c r="AC210" s="3"/>
     </row>
-    <row r="211" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -7325,7 +7337,7 @@
       <c r="AB211" s="3"/>
       <c r="AC211" s="3"/>
     </row>
-    <row r="212" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -7354,7 +7366,7 @@
       <c r="AB212" s="3"/>
       <c r="AC212" s="3"/>
     </row>
-    <row r="213" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -7383,7 +7395,7 @@
       <c r="AB213" s="3"/>
       <c r="AC213" s="3"/>
     </row>
-    <row r="214" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -7412,7 +7424,7 @@
       <c r="AB214" s="3"/>
       <c r="AC214" s="3"/>
     </row>
-    <row r="215" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -7441,7 +7453,7 @@
       <c r="AB215" s="3"/>
       <c r="AC215" s="3"/>
     </row>
-    <row r="216" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -7470,7 +7482,7 @@
       <c r="AB216" s="3"/>
       <c r="AC216" s="3"/>
     </row>
-    <row r="217" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -7499,7 +7511,7 @@
       <c r="AB217" s="3"/>
       <c r="AC217" s="3"/>
     </row>
-    <row r="218" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -7528,7 +7540,7 @@
       <c r="AB218" s="3"/>
       <c r="AC218" s="3"/>
     </row>
-    <row r="219" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -7557,7 +7569,7 @@
       <c r="AB219" s="3"/>
       <c r="AC219" s="3"/>
     </row>
-    <row r="220" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -7586,7 +7598,7 @@
       <c r="AB220" s="3"/>
       <c r="AC220" s="3"/>
     </row>
-    <row r="221" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -7615,7 +7627,7 @@
       <c r="AB221" s="3"/>
       <c r="AC221" s="3"/>
     </row>
-    <row r="222" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -7644,7 +7656,7 @@
       <c r="AB222" s="3"/>
       <c r="AC222" s="3"/>
     </row>
-    <row r="223" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -7673,7 +7685,7 @@
       <c r="AB223" s="3"/>
       <c r="AC223" s="3"/>
     </row>
-    <row r="224" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -7702,7 +7714,7 @@
       <c r="AB224" s="3"/>
       <c r="AC224" s="3"/>
     </row>
-    <row r="225" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -7731,7 +7743,7 @@
       <c r="AB225" s="3"/>
       <c r="AC225" s="3"/>
     </row>
-    <row r="226" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -7760,7 +7772,7 @@
       <c r="AB226" s="3"/>
       <c r="AC226" s="3"/>
     </row>
-    <row r="227" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -7789,7 +7801,7 @@
       <c r="AB227" s="3"/>
       <c r="AC227" s="3"/>
     </row>
-    <row r="228" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -7818,7 +7830,7 @@
       <c r="AB228" s="3"/>
       <c r="AC228" s="3"/>
     </row>
-    <row r="229" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -7847,7 +7859,7 @@
       <c r="AB229" s="3"/>
       <c r="AC229" s="3"/>
     </row>
-    <row r="230" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -7876,7 +7888,7 @@
       <c r="AB230" s="3"/>
       <c r="AC230" s="3"/>
     </row>
-    <row r="231" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -7905,7 +7917,7 @@
       <c r="AB231" s="3"/>
       <c r="AC231" s="3"/>
     </row>
-    <row r="232" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -7934,7 +7946,7 @@
       <c r="AB232" s="3"/>
       <c r="AC232" s="3"/>
     </row>
-    <row r="233" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -7963,7 +7975,7 @@
       <c r="AB233" s="3"/>
       <c r="AC233" s="3"/>
     </row>
-    <row r="234" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -7992,7 +8004,7 @@
       <c r="AB234" s="3"/>
       <c r="AC234" s="3"/>
     </row>
-    <row r="235" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -8021,7 +8033,7 @@
       <c r="AB235" s="3"/>
       <c r="AC235" s="3"/>
     </row>
-    <row r="236" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -8050,7 +8062,7 @@
       <c r="AB236" s="3"/>
       <c r="AC236" s="3"/>
     </row>
-    <row r="237" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -8079,7 +8091,7 @@
       <c r="AB237" s="3"/>
       <c r="AC237" s="3"/>
     </row>
-    <row r="238" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -8108,7 +8120,7 @@
       <c r="AB238" s="3"/>
       <c r="AC238" s="3"/>
     </row>
-    <row r="239" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -8137,7 +8149,7 @@
       <c r="AB239" s="3"/>
       <c r="AC239" s="3"/>
     </row>
-    <row r="240" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -8166,7 +8178,7 @@
       <c r="AB240" s="3"/>
       <c r="AC240" s="3"/>
     </row>
-    <row r="241" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -8195,7 +8207,7 @@
       <c r="AB241" s="3"/>
       <c r="AC241" s="3"/>
     </row>
-    <row r="242" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -8224,7 +8236,7 @@
       <c r="AB242" s="3"/>
       <c r="AC242" s="3"/>
     </row>
-    <row r="243" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -8253,7 +8265,7 @@
       <c r="AB243" s="3"/>
       <c r="AC243" s="3"/>
     </row>
-    <row r="244" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -8282,7 +8294,7 @@
       <c r="AB244" s="3"/>
       <c r="AC244" s="3"/>
     </row>
-    <row r="245" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -8311,7 +8323,7 @@
       <c r="AB245" s="3"/>
       <c r="AC245" s="3"/>
     </row>
-    <row r="246" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -8340,7 +8352,7 @@
       <c r="AB246" s="3"/>
       <c r="AC246" s="3"/>
     </row>
-    <row r="247" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -8369,7 +8381,7 @@
       <c r="AB247" s="3"/>
       <c r="AC247" s="3"/>
     </row>
-    <row r="248" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -8398,7 +8410,7 @@
       <c r="AB248" s="3"/>
       <c r="AC248" s="3"/>
     </row>
-    <row r="249" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -8427,7 +8439,7 @@
       <c r="AB249" s="3"/>
       <c r="AC249" s="3"/>
     </row>
-    <row r="250" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -8456,7 +8468,7 @@
       <c r="AB250" s="3"/>
       <c r="AC250" s="3"/>
     </row>
-    <row r="251" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -8485,7 +8497,7 @@
       <c r="AB251" s="3"/>
       <c r="AC251" s="3"/>
     </row>
-    <row r="252" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -8514,7 +8526,7 @@
       <c r="AB252" s="3"/>
       <c r="AC252" s="3"/>
     </row>
-    <row r="253" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -8543,7 +8555,7 @@
       <c r="AB253" s="3"/>
       <c r="AC253" s="3"/>
     </row>
-    <row r="254" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -8572,7 +8584,7 @@
       <c r="AB254" s="3"/>
       <c r="AC254" s="3"/>
     </row>
-    <row r="255" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -8601,7 +8613,7 @@
       <c r="AB255" s="3"/>
       <c r="AC255" s="3"/>
     </row>
-    <row r="256" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -8630,7 +8642,7 @@
       <c r="AB256" s="3"/>
       <c r="AC256" s="3"/>
     </row>
-    <row r="257" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -8659,7 +8671,7 @@
       <c r="AB257" s="3"/>
       <c r="AC257" s="3"/>
     </row>
-    <row r="258" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -8688,7 +8700,7 @@
       <c r="AB258" s="3"/>
       <c r="AC258" s="3"/>
     </row>
-    <row r="259" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -8717,7 +8729,7 @@
       <c r="AB259" s="3"/>
       <c r="AC259" s="3"/>
     </row>
-    <row r="260" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -8746,7 +8758,7 @@
       <c r="AB260" s="3"/>
       <c r="AC260" s="3"/>
     </row>
-    <row r="261" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -8775,7 +8787,7 @@
       <c r="AB261" s="3"/>
       <c r="AC261" s="3"/>
     </row>
-    <row r="262" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -8804,7 +8816,7 @@
       <c r="AB262" s="3"/>
       <c r="AC262" s="3"/>
     </row>
-    <row r="263" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -8833,7 +8845,7 @@
       <c r="AB263" s="3"/>
       <c r="AC263" s="3"/>
     </row>
-    <row r="264" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -8862,7 +8874,7 @@
       <c r="AB264" s="3"/>
       <c r="AC264" s="3"/>
     </row>
-    <row r="265" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -8891,7 +8903,7 @@
       <c r="AB265" s="3"/>
       <c r="AC265" s="3"/>
     </row>
-    <row r="266" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -8920,7 +8932,7 @@
       <c r="AB266" s="3"/>
       <c r="AC266" s="3"/>
     </row>
-    <row r="267" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -8949,7 +8961,7 @@
       <c r="AB267" s="3"/>
       <c r="AC267" s="3"/>
     </row>
-    <row r="268" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -8978,7 +8990,7 @@
       <c r="AB268" s="3"/>
       <c r="AC268" s="3"/>
     </row>
-    <row r="269" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -9007,7 +9019,7 @@
       <c r="AB269" s="3"/>
       <c r="AC269" s="3"/>
     </row>
-    <row r="270" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -9036,7 +9048,7 @@
       <c r="AB270" s="3"/>
       <c r="AC270" s="3"/>
     </row>
-    <row r="271" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -9065,7 +9077,7 @@
       <c r="AB271" s="3"/>
       <c r="AC271" s="3"/>
     </row>
-    <row r="272" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -9094,7 +9106,7 @@
       <c r="AB272" s="3"/>
       <c r="AC272" s="3"/>
     </row>
-    <row r="273" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -9123,7 +9135,7 @@
       <c r="AB273" s="3"/>
       <c r="AC273" s="3"/>
     </row>
-    <row r="274" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -9152,7 +9164,7 @@
       <c r="AB274" s="3"/>
       <c r="AC274" s="3"/>
     </row>
-    <row r="275" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -9181,7 +9193,7 @@
       <c r="AB275" s="3"/>
       <c r="AC275" s="3"/>
     </row>
-    <row r="276" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -9210,7 +9222,7 @@
       <c r="AB276" s="3"/>
       <c r="AC276" s="3"/>
     </row>
-    <row r="277" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -9239,7 +9251,7 @@
       <c r="AB277" s="3"/>
       <c r="AC277" s="3"/>
     </row>
-    <row r="278" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -9268,7 +9280,7 @@
       <c r="AB278" s="3"/>
       <c r="AC278" s="3"/>
     </row>
-    <row r="279" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -9297,7 +9309,7 @@
       <c r="AB279" s="3"/>
       <c r="AC279" s="3"/>
     </row>
-    <row r="280" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -9326,7 +9338,7 @@
       <c r="AB280" s="3"/>
       <c r="AC280" s="3"/>
     </row>
-    <row r="281" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -9355,7 +9367,7 @@
       <c r="AB281" s="3"/>
       <c r="AC281" s="3"/>
     </row>
-    <row r="282" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -9384,7 +9396,7 @@
       <c r="AB282" s="3"/>
       <c r="AC282" s="3"/>
     </row>
-    <row r="283" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -9413,7 +9425,7 @@
       <c r="AB283" s="3"/>
       <c r="AC283" s="3"/>
     </row>
-    <row r="284" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -9442,7 +9454,7 @@
       <c r="AB284" s="3"/>
       <c r="AC284" s="3"/>
     </row>
-    <row r="285" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -9471,7 +9483,7 @@
       <c r="AB285" s="3"/>
       <c r="AC285" s="3"/>
     </row>
-    <row r="286" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -9500,7 +9512,7 @@
       <c r="AB286" s="3"/>
       <c r="AC286" s="3"/>
     </row>
-    <row r="287" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -9529,7 +9541,7 @@
       <c r="AB287" s="3"/>
       <c r="AC287" s="3"/>
     </row>
-    <row r="288" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -9558,7 +9570,7 @@
       <c r="AB288" s="3"/>
       <c r="AC288" s="3"/>
     </row>
-    <row r="289" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -9587,7 +9599,7 @@
       <c r="AB289" s="3"/>
       <c r="AC289" s="3"/>
     </row>
-    <row r="290" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -9616,7 +9628,7 @@
       <c r="AB290" s="3"/>
       <c r="AC290" s="3"/>
     </row>
-    <row r="291" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -9645,7 +9657,7 @@
       <c r="AB291" s="3"/>
       <c r="AC291" s="3"/>
     </row>
-    <row r="292" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -9674,7 +9686,7 @@
       <c r="AB292" s="3"/>
       <c r="AC292" s="3"/>
     </row>
-    <row r="293" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -9703,7 +9715,7 @@
       <c r="AB293" s="3"/>
       <c r="AC293" s="3"/>
     </row>
-    <row r="294" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -9732,7 +9744,7 @@
       <c r="AB294" s="3"/>
       <c r="AC294" s="3"/>
     </row>
-    <row r="295" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -9761,7 +9773,7 @@
       <c r="AB295" s="3"/>
       <c r="AC295" s="3"/>
     </row>
-    <row r="296" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -9790,7 +9802,7 @@
       <c r="AB296" s="3"/>
       <c r="AC296" s="3"/>
     </row>
-    <row r="297" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -9819,7 +9831,7 @@
       <c r="AB297" s="3"/>
       <c r="AC297" s="3"/>
     </row>
-    <row r="298" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -9848,7 +9860,7 @@
       <c r="AB298" s="3"/>
       <c r="AC298" s="3"/>
     </row>
-    <row r="299" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -9877,7 +9889,7 @@
       <c r="AB299" s="3"/>
       <c r="AC299" s="3"/>
     </row>
-    <row r="300" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -9906,7 +9918,7 @@
       <c r="AB300" s="3"/>
       <c r="AC300" s="3"/>
     </row>
-    <row r="301" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -9935,7 +9947,7 @@
       <c r="AB301" s="3"/>
       <c r="AC301" s="3"/>
     </row>
-    <row r="302" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -9964,7 +9976,7 @@
       <c r="AB302" s="3"/>
       <c r="AC302" s="3"/>
     </row>
-    <row r="303" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -9993,7 +10005,7 @@
       <c r="AB303" s="3"/>
       <c r="AC303" s="3"/>
     </row>
-    <row r="304" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -10022,7 +10034,7 @@
       <c r="AB304" s="3"/>
       <c r="AC304" s="3"/>
     </row>
-    <row r="305" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -10051,7 +10063,7 @@
       <c r="AB305" s="3"/>
       <c r="AC305" s="3"/>
     </row>
-    <row r="306" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -10080,7 +10092,7 @@
       <c r="AB306" s="3"/>
       <c r="AC306" s="3"/>
     </row>
-    <row r="307" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -10109,7 +10121,7 @@
       <c r="AB307" s="3"/>
       <c r="AC307" s="3"/>
     </row>
-    <row r="308" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -10138,7 +10150,7 @@
       <c r="AB308" s="3"/>
       <c r="AC308" s="3"/>
     </row>
-    <row r="309" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -10167,7 +10179,7 @@
       <c r="AB309" s="3"/>
       <c r="AC309" s="3"/>
     </row>
-    <row r="310" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -10196,7 +10208,7 @@
       <c r="AB310" s="3"/>
       <c r="AC310" s="3"/>
     </row>
-    <row r="311" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -10225,7 +10237,7 @@
       <c r="AB311" s="3"/>
       <c r="AC311" s="3"/>
     </row>
-    <row r="312" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -10254,7 +10266,7 @@
       <c r="AB312" s="3"/>
       <c r="AC312" s="3"/>
     </row>
-    <row r="313" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -10283,7 +10295,7 @@
       <c r="AB313" s="3"/>
       <c r="AC313" s="3"/>
     </row>
-    <row r="314" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -10312,7 +10324,7 @@
       <c r="AB314" s="3"/>
       <c r="AC314" s="3"/>
     </row>
-    <row r="315" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -10341,7 +10353,7 @@
       <c r="AB315" s="3"/>
       <c r="AC315" s="3"/>
     </row>
-    <row r="316" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -10370,7 +10382,7 @@
       <c r="AB316" s="3"/>
       <c r="AC316" s="3"/>
     </row>
-    <row r="317" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -10399,7 +10411,7 @@
       <c r="AB317" s="3"/>
       <c r="AC317" s="3"/>
     </row>
-    <row r="318" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -10428,7 +10440,7 @@
       <c r="AB318" s="3"/>
       <c r="AC318" s="3"/>
     </row>
-    <row r="319" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -10457,7 +10469,7 @@
       <c r="AB319" s="3"/>
       <c r="AC319" s="3"/>
     </row>
-    <row r="320" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -10486,7 +10498,7 @@
       <c r="AB320" s="3"/>
       <c r="AC320" s="3"/>
     </row>
-    <row r="321" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -10515,7 +10527,7 @@
       <c r="AB321" s="3"/>
       <c r="AC321" s="3"/>
     </row>
-    <row r="322" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -10544,7 +10556,7 @@
       <c r="AB322" s="3"/>
       <c r="AC322" s="3"/>
     </row>
-    <row r="323" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -10573,7 +10585,7 @@
       <c r="AB323" s="3"/>
       <c r="AC323" s="3"/>
     </row>
-    <row r="324" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -10602,7 +10614,7 @@
       <c r="AB324" s="3"/>
       <c r="AC324" s="3"/>
     </row>
-    <row r="325" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -10631,7 +10643,7 @@
       <c r="AB325" s="3"/>
       <c r="AC325" s="3"/>
     </row>
-    <row r="326" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -10660,7 +10672,7 @@
       <c r="AB326" s="3"/>
       <c r="AC326" s="3"/>
     </row>
-    <row r="327" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -10689,7 +10701,7 @@
       <c r="AB327" s="3"/>
       <c r="AC327" s="3"/>
     </row>
-    <row r="328" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -10718,7 +10730,7 @@
       <c r="AB328" s="3"/>
       <c r="AC328" s="3"/>
     </row>
-    <row r="329" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -10747,7 +10759,7 @@
       <c r="AB329" s="3"/>
       <c r="AC329" s="3"/>
     </row>
-    <row r="330" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -10776,7 +10788,7 @@
       <c r="AB330" s="3"/>
       <c r="AC330" s="3"/>
     </row>
-    <row r="331" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -10805,7 +10817,7 @@
       <c r="AB331" s="3"/>
       <c r="AC331" s="3"/>
     </row>
-    <row r="332" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -10834,7 +10846,7 @@
       <c r="AB332" s="3"/>
       <c r="AC332" s="3"/>
     </row>
-    <row r="333" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -10863,7 +10875,7 @@
       <c r="AB333" s="3"/>
       <c r="AC333" s="3"/>
     </row>
-    <row r="334" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -10892,7 +10904,7 @@
       <c r="AB334" s="3"/>
       <c r="AC334" s="3"/>
     </row>
-    <row r="335" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -10921,7 +10933,7 @@
       <c r="AB335" s="3"/>
       <c r="AC335" s="3"/>
     </row>
-    <row r="336" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -10950,7 +10962,7 @@
       <c r="AB336" s="3"/>
       <c r="AC336" s="3"/>
     </row>
-    <row r="337" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -10979,7 +10991,7 @@
       <c r="AB337" s="3"/>
       <c r="AC337" s="3"/>
     </row>
-    <row r="338" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -11008,7 +11020,7 @@
       <c r="AB338" s="3"/>
       <c r="AC338" s="3"/>
     </row>
-    <row r="339" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -11037,7 +11049,7 @@
       <c r="AB339" s="3"/>
       <c r="AC339" s="3"/>
     </row>
-    <row r="340" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -11066,7 +11078,7 @@
       <c r="AB340" s="3"/>
       <c r="AC340" s="3"/>
     </row>
-    <row r="341" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -11095,7 +11107,7 @@
       <c r="AB341" s="3"/>
       <c r="AC341" s="3"/>
     </row>
-    <row r="342" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -11124,7 +11136,7 @@
       <c r="AB342" s="3"/>
       <c r="AC342" s="3"/>
     </row>
-    <row r="343" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -11153,7 +11165,7 @@
       <c r="AB343" s="3"/>
       <c r="AC343" s="3"/>
     </row>
-    <row r="344" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -11182,7 +11194,7 @@
       <c r="AB344" s="3"/>
       <c r="AC344" s="3"/>
     </row>
-    <row r="345" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -11211,7 +11223,7 @@
       <c r="AB345" s="3"/>
       <c r="AC345" s="3"/>
     </row>
-    <row r="346" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -11240,7 +11252,7 @@
       <c r="AB346" s="3"/>
       <c r="AC346" s="3"/>
     </row>
-    <row r="347" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -11269,7 +11281,7 @@
       <c r="AB347" s="3"/>
       <c r="AC347" s="3"/>
     </row>
-    <row r="348" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -11298,7 +11310,7 @@
       <c r="AB348" s="3"/>
       <c r="AC348" s="3"/>
     </row>
-    <row r="349" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -11327,7 +11339,7 @@
       <c r="AB349" s="3"/>
       <c r="AC349" s="3"/>
     </row>
-    <row r="350" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -11356,7 +11368,7 @@
       <c r="AB350" s="3"/>
       <c r="AC350" s="3"/>
     </row>
-    <row r="351" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -11385,7 +11397,7 @@
       <c r="AB351" s="3"/>
       <c r="AC351" s="3"/>
     </row>
-    <row r="352" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -11414,7 +11426,7 @@
       <c r="AB352" s="3"/>
       <c r="AC352" s="3"/>
     </row>
-    <row r="353" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -11443,7 +11455,7 @@
       <c r="AB353" s="3"/>
       <c r="AC353" s="3"/>
     </row>
-    <row r="354" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -11472,7 +11484,7 @@
       <c r="AB354" s="3"/>
       <c r="AC354" s="3"/>
     </row>
-    <row r="355" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -11501,7 +11513,7 @@
       <c r="AB355" s="3"/>
       <c r="AC355" s="3"/>
     </row>
-    <row r="356" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -11530,7 +11542,7 @@
       <c r="AB356" s="3"/>
       <c r="AC356" s="3"/>
     </row>
-    <row r="357" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -11559,7 +11571,7 @@
       <c r="AB357" s="3"/>
       <c r="AC357" s="3"/>
     </row>
-    <row r="358" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -11588,7 +11600,7 @@
       <c r="AB358" s="3"/>
       <c r="AC358" s="3"/>
     </row>
-    <row r="359" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -11617,7 +11629,7 @@
       <c r="AB359" s="3"/>
       <c r="AC359" s="3"/>
     </row>
-    <row r="360" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -11646,7 +11658,7 @@
       <c r="AB360" s="3"/>
       <c r="AC360" s="3"/>
     </row>
-    <row r="361" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -11675,7 +11687,7 @@
       <c r="AB361" s="3"/>
       <c r="AC361" s="3"/>
     </row>
-    <row r="362" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -11704,7 +11716,7 @@
       <c r="AB362" s="3"/>
       <c r="AC362" s="3"/>
     </row>
-    <row r="363" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -11733,7 +11745,7 @@
       <c r="AB363" s="3"/>
       <c r="AC363" s="3"/>
     </row>
-    <row r="364" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -11762,7 +11774,7 @@
       <c r="AB364" s="3"/>
       <c r="AC364" s="3"/>
     </row>
-    <row r="365" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -11791,7 +11803,7 @@
       <c r="AB365" s="3"/>
       <c r="AC365" s="3"/>
     </row>
-    <row r="366" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -11820,7 +11832,7 @@
       <c r="AB366" s="3"/>
       <c r="AC366" s="3"/>
     </row>
-    <row r="367" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -11849,7 +11861,7 @@
       <c r="AB367" s="3"/>
       <c r="AC367" s="3"/>
     </row>
-    <row r="368" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -11878,7 +11890,7 @@
       <c r="AB368" s="3"/>
       <c r="AC368" s="3"/>
     </row>
-    <row r="369" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -11907,7 +11919,7 @@
       <c r="AB369" s="3"/>
       <c r="AC369" s="3"/>
     </row>
-    <row r="370" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -11936,7 +11948,7 @@
       <c r="AB370" s="3"/>
       <c r="AC370" s="3"/>
     </row>
-    <row r="371" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -11965,7 +11977,7 @@
       <c r="AB371" s="3"/>
       <c r="AC371" s="3"/>
     </row>
-    <row r="372" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -11994,7 +12006,7 @@
       <c r="AB372" s="3"/>
       <c r="AC372" s="3"/>
     </row>
-    <row r="373" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -12023,7 +12035,7 @@
       <c r="AB373" s="3"/>
       <c r="AC373" s="3"/>
     </row>
-    <row r="374" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -12052,7 +12064,7 @@
       <c r="AB374" s="3"/>
       <c r="AC374" s="3"/>
     </row>
-    <row r="375" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -12081,7 +12093,7 @@
       <c r="AB375" s="3"/>
       <c r="AC375" s="3"/>
     </row>
-    <row r="376" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -12110,7 +12122,7 @@
       <c r="AB376" s="3"/>
       <c r="AC376" s="3"/>
     </row>
-    <row r="377" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -12139,7 +12151,7 @@
       <c r="AB377" s="3"/>
       <c r="AC377" s="3"/>
     </row>
-    <row r="378" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -12168,7 +12180,7 @@
       <c r="AB378" s="3"/>
       <c r="AC378" s="3"/>
     </row>
-    <row r="379" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -12197,7 +12209,7 @@
       <c r="AB379" s="3"/>
       <c r="AC379" s="3"/>
     </row>
-    <row r="380" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -12226,7 +12238,7 @@
       <c r="AB380" s="3"/>
       <c r="AC380" s="3"/>
     </row>
-    <row r="381" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -12255,7 +12267,7 @@
       <c r="AB381" s="3"/>
       <c r="AC381" s="3"/>
     </row>
-    <row r="382" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -12284,7 +12296,7 @@
       <c r="AB382" s="3"/>
       <c r="AC382" s="3"/>
     </row>
-    <row r="383" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -12313,7 +12325,7 @@
       <c r="AB383" s="3"/>
       <c r="AC383" s="3"/>
     </row>
-    <row r="384" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -12342,7 +12354,7 @@
       <c r="AB384" s="3"/>
       <c r="AC384" s="3"/>
     </row>
-    <row r="385" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -12371,7 +12383,7 @@
       <c r="AB385" s="3"/>
       <c r="AC385" s="3"/>
     </row>
-    <row r="386" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -12400,7 +12412,7 @@
       <c r="AB386" s="3"/>
       <c r="AC386" s="3"/>
     </row>
-    <row r="387" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -12429,7 +12441,7 @@
       <c r="AB387" s="3"/>
       <c r="AC387" s="3"/>
     </row>
-    <row r="388" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -12458,7 +12470,7 @@
       <c r="AB388" s="3"/>
       <c r="AC388" s="3"/>
     </row>
-    <row r="389" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -12487,7 +12499,7 @@
       <c r="AB389" s="3"/>
       <c r="AC389" s="3"/>
     </row>
-    <row r="390" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -12516,7 +12528,7 @@
       <c r="AB390" s="3"/>
       <c r="AC390" s="3"/>
     </row>
-    <row r="391" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -12545,7 +12557,7 @@
       <c r="AB391" s="3"/>
       <c r="AC391" s="3"/>
     </row>
-    <row r="392" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -12574,7 +12586,7 @@
       <c r="AB392" s="3"/>
       <c r="AC392" s="3"/>
     </row>
-    <row r="393" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -12603,7 +12615,7 @@
       <c r="AB393" s="3"/>
       <c r="AC393" s="3"/>
     </row>
-    <row r="394" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -12632,7 +12644,7 @@
       <c r="AB394" s="3"/>
       <c r="AC394" s="3"/>
     </row>
-    <row r="395" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -12661,7 +12673,7 @@
       <c r="AB395" s="3"/>
       <c r="AC395" s="3"/>
     </row>
-    <row r="396" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -12690,7 +12702,7 @@
       <c r="AB396" s="3"/>
       <c r="AC396" s="3"/>
     </row>
-    <row r="397" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -12719,7 +12731,7 @@
       <c r="AB397" s="3"/>
       <c r="AC397" s="3"/>
     </row>
-    <row r="398" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -12748,7 +12760,7 @@
       <c r="AB398" s="3"/>
       <c r="AC398" s="3"/>
     </row>
-    <row r="399" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
@@ -12777,7 +12789,7 @@
       <c r="AB399" s="3"/>
       <c r="AC399" s="3"/>
     </row>
-    <row r="400" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -12806,7 +12818,7 @@
       <c r="AB400" s="3"/>
       <c r="AC400" s="3"/>
     </row>
-    <row r="401" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -12835,7 +12847,7 @@
       <c r="AB401" s="3"/>
       <c r="AC401" s="3"/>
     </row>
-    <row r="402" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
@@ -12864,7 +12876,7 @@
       <c r="AB402" s="3"/>
       <c r="AC402" s="3"/>
     </row>
-    <row r="403" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
@@ -12893,7 +12905,7 @@
       <c r="AB403" s="3"/>
       <c r="AC403" s="3"/>
     </row>
-    <row r="404" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -12922,7 +12934,7 @@
       <c r="AB404" s="3"/>
       <c r="AC404" s="3"/>
     </row>
-    <row r="405" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -12951,7 +12963,7 @@
       <c r="AB405" s="3"/>
       <c r="AC405" s="3"/>
     </row>
-    <row r="406" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
@@ -12980,7 +12992,7 @@
       <c r="AB406" s="3"/>
       <c r="AC406" s="3"/>
     </row>
-    <row r="407" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
@@ -13009,7 +13021,7 @@
       <c r="AB407" s="3"/>
       <c r="AC407" s="3"/>
     </row>
-    <row r="408" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -13038,7 +13050,7 @@
       <c r="AB408" s="3"/>
       <c r="AC408" s="3"/>
     </row>
-    <row r="409" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -13067,7 +13079,7 @@
       <c r="AB409" s="3"/>
       <c r="AC409" s="3"/>
     </row>
-    <row r="410" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -13096,7 +13108,7 @@
       <c r="AB410" s="3"/>
       <c r="AC410" s="3"/>
     </row>
-    <row r="411" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -13125,7 +13137,7 @@
       <c r="AB411" s="3"/>
       <c r="AC411" s="3"/>
     </row>
-    <row r="412" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
@@ -13154,7 +13166,7 @@
       <c r="AB412" s="3"/>
       <c r="AC412" s="3"/>
     </row>
-    <row r="413" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -13183,7 +13195,7 @@
       <c r="AB413" s="3"/>
       <c r="AC413" s="3"/>
     </row>
-    <row r="414" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -13212,7 +13224,7 @@
       <c r="AB414" s="3"/>
       <c r="AC414" s="3"/>
     </row>
-    <row r="415" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -13241,7 +13253,7 @@
       <c r="AB415" s="3"/>
       <c r="AC415" s="3"/>
     </row>
-    <row r="416" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -13270,7 +13282,7 @@
       <c r="AB416" s="3"/>
       <c r="AC416" s="3"/>
     </row>
-    <row r="417" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -13299,7 +13311,7 @@
       <c r="AB417" s="3"/>
       <c r="AC417" s="3"/>
     </row>
-    <row r="418" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
@@ -13328,7 +13340,7 @@
       <c r="AB418" s="3"/>
       <c r="AC418" s="3"/>
     </row>
-    <row r="419" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -13357,7 +13369,7 @@
       <c r="AB419" s="3"/>
       <c r="AC419" s="3"/>
     </row>
-    <row r="420" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
@@ -13386,7 +13398,7 @@
       <c r="AB420" s="3"/>
       <c r="AC420" s="3"/>
     </row>
-    <row r="421" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -13415,7 +13427,7 @@
       <c r="AB421" s="3"/>
       <c r="AC421" s="3"/>
     </row>
-    <row r="422" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
@@ -13444,7 +13456,7 @@
       <c r="AB422" s="3"/>
       <c r="AC422" s="3"/>
     </row>
-    <row r="423" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
@@ -13473,7 +13485,7 @@
       <c r="AB423" s="3"/>
       <c r="AC423" s="3"/>
     </row>
-    <row r="424" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
@@ -13502,7 +13514,7 @@
       <c r="AB424" s="3"/>
       <c r="AC424" s="3"/>
     </row>
-    <row r="425" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
@@ -13531,7 +13543,7 @@
       <c r="AB425" s="3"/>
       <c r="AC425" s="3"/>
     </row>
-    <row r="426" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
@@ -13560,7 +13572,7 @@
       <c r="AB426" s="3"/>
       <c r="AC426" s="3"/>
     </row>
-    <row r="427" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
@@ -13589,7 +13601,7 @@
       <c r="AB427" s="3"/>
       <c r="AC427" s="3"/>
     </row>
-    <row r="428" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
@@ -13618,7 +13630,7 @@
       <c r="AB428" s="3"/>
       <c r="AC428" s="3"/>
     </row>
-    <row r="429" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
@@ -13647,7 +13659,7 @@
       <c r="AB429" s="3"/>
       <c r="AC429" s="3"/>
     </row>
-    <row r="430" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
@@ -13676,7 +13688,7 @@
       <c r="AB430" s="3"/>
       <c r="AC430" s="3"/>
     </row>
-    <row r="431" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
@@ -13705,7 +13717,7 @@
       <c r="AB431" s="3"/>
       <c r="AC431" s="3"/>
     </row>
-    <row r="432" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
@@ -13734,7 +13746,7 @@
       <c r="AB432" s="3"/>
       <c r="AC432" s="3"/>
     </row>
-    <row r="433" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
@@ -13763,7 +13775,7 @@
       <c r="AB433" s="3"/>
       <c r="AC433" s="3"/>
     </row>
-    <row r="434" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
@@ -13792,7 +13804,7 @@
       <c r="AB434" s="3"/>
       <c r="AC434" s="3"/>
     </row>
-    <row r="435" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
@@ -13821,7 +13833,7 @@
       <c r="AB435" s="3"/>
       <c r="AC435" s="3"/>
     </row>
-    <row r="436" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
@@ -13850,7 +13862,7 @@
       <c r="AB436" s="3"/>
       <c r="AC436" s="3"/>
     </row>
-    <row r="437" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
@@ -13879,7 +13891,7 @@
       <c r="AB437" s="3"/>
       <c r="AC437" s="3"/>
     </row>
-    <row r="438" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
@@ -13908,7 +13920,7 @@
       <c r="AB438" s="3"/>
       <c r="AC438" s="3"/>
     </row>
-    <row r="439" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
@@ -13937,7 +13949,7 @@
       <c r="AB439" s="3"/>
       <c r="AC439" s="3"/>
     </row>
-    <row r="440" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
@@ -13966,7 +13978,7 @@
       <c r="AB440" s="3"/>
       <c r="AC440" s="3"/>
     </row>
-    <row r="441" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
@@ -13995,7 +14007,7 @@
       <c r="AB441" s="3"/>
       <c r="AC441" s="3"/>
     </row>
-    <row r="442" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
@@ -14024,7 +14036,7 @@
       <c r="AB442" s="3"/>
       <c r="AC442" s="3"/>
     </row>
-    <row r="443" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
@@ -14053,7 +14065,7 @@
       <c r="AB443" s="3"/>
       <c r="AC443" s="3"/>
     </row>
-    <row r="444" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
@@ -14082,7 +14094,7 @@
       <c r="AB444" s="3"/>
       <c r="AC444" s="3"/>
     </row>
-    <row r="445" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
@@ -14111,7 +14123,7 @@
       <c r="AB445" s="3"/>
       <c r="AC445" s="3"/>
     </row>
-    <row r="446" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
@@ -14140,7 +14152,7 @@
       <c r="AB446" s="3"/>
       <c r="AC446" s="3"/>
     </row>
-    <row r="447" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
@@ -14169,7 +14181,7 @@
       <c r="AB447" s="3"/>
       <c r="AC447" s="3"/>
     </row>
-    <row r="448" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
@@ -14198,7 +14210,7 @@
       <c r="AB448" s="3"/>
       <c r="AC448" s="3"/>
     </row>
-    <row r="449" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
@@ -14227,7 +14239,7 @@
       <c r="AB449" s="3"/>
       <c r="AC449" s="3"/>
     </row>
-    <row r="450" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
@@ -14256,7 +14268,7 @@
       <c r="AB450" s="3"/>
       <c r="AC450" s="3"/>
     </row>
-    <row r="451" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
@@ -14285,7 +14297,7 @@
       <c r="AB451" s="3"/>
       <c r="AC451" s="3"/>
     </row>
-    <row r="452" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
@@ -14314,7 +14326,7 @@
       <c r="AB452" s="3"/>
       <c r="AC452" s="3"/>
     </row>
-    <row r="453" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
@@ -14343,7 +14355,7 @@
       <c r="AB453" s="3"/>
       <c r="AC453" s="3"/>
     </row>
-    <row r="454" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
@@ -14372,7 +14384,7 @@
       <c r="AB454" s="3"/>
       <c r="AC454" s="3"/>
     </row>
-    <row r="455" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
@@ -14401,7 +14413,7 @@
       <c r="AB455" s="3"/>
       <c r="AC455" s="3"/>
     </row>
-    <row r="456" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
@@ -14430,7 +14442,7 @@
       <c r="AB456" s="3"/>
       <c r="AC456" s="3"/>
     </row>
-    <row r="457" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
@@ -14459,7 +14471,7 @@
       <c r="AB457" s="3"/>
       <c r="AC457" s="3"/>
     </row>
-    <row r="458" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
@@ -14488,7 +14500,7 @@
       <c r="AB458" s="3"/>
       <c r="AC458" s="3"/>
     </row>
-    <row r="459" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
@@ -14517,7 +14529,7 @@
       <c r="AB459" s="3"/>
       <c r="AC459" s="3"/>
     </row>
-    <row r="460" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
@@ -14546,7 +14558,7 @@
       <c r="AB460" s="3"/>
       <c r="AC460" s="3"/>
     </row>
-    <row r="461" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
@@ -14575,7 +14587,7 @@
       <c r="AB461" s="3"/>
       <c r="AC461" s="3"/>
     </row>
-    <row r="462" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
@@ -14604,7 +14616,7 @@
       <c r="AB462" s="3"/>
       <c r="AC462" s="3"/>
     </row>
-    <row r="463" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
@@ -14633,7 +14645,7 @@
       <c r="AB463" s="3"/>
       <c r="AC463" s="3"/>
     </row>
-    <row r="464" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
@@ -14662,7 +14674,7 @@
       <c r="AB464" s="3"/>
       <c r="AC464" s="3"/>
     </row>
-    <row r="465" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
@@ -14691,7 +14703,7 @@
       <c r="AB465" s="3"/>
       <c r="AC465" s="3"/>
     </row>
-    <row r="466" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
@@ -14720,7 +14732,7 @@
       <c r="AB466" s="3"/>
       <c r="AC466" s="3"/>
     </row>
-    <row r="467" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
@@ -14749,7 +14761,7 @@
       <c r="AB467" s="3"/>
       <c r="AC467" s="3"/>
     </row>
-    <row r="468" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
@@ -14778,7 +14790,7 @@
       <c r="AB468" s="3"/>
       <c r="AC468" s="3"/>
     </row>
-    <row r="469" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
@@ -14807,7 +14819,7 @@
       <c r="AB469" s="3"/>
       <c r="AC469" s="3"/>
     </row>
-    <row r="470" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
@@ -14836,7 +14848,7 @@
       <c r="AB470" s="3"/>
       <c r="AC470" s="3"/>
     </row>
-    <row r="471" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
@@ -14865,7 +14877,7 @@
       <c r="AB471" s="3"/>
       <c r="AC471" s="3"/>
     </row>
-    <row r="472" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
@@ -14894,7 +14906,7 @@
       <c r="AB472" s="3"/>
       <c r="AC472" s="3"/>
     </row>
-    <row r="473" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
@@ -14923,7 +14935,7 @@
       <c r="AB473" s="3"/>
       <c r="AC473" s="3"/>
     </row>
-    <row r="474" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
@@ -14952,7 +14964,7 @@
       <c r="AB474" s="3"/>
       <c r="AC474" s="3"/>
     </row>
-    <row r="475" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
@@ -14981,7 +14993,7 @@
       <c r="AB475" s="3"/>
       <c r="AC475" s="3"/>
     </row>
-    <row r="476" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
@@ -15010,7 +15022,7 @@
       <c r="AB476" s="3"/>
       <c r="AC476" s="3"/>
     </row>
-    <row r="477" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
@@ -15039,7 +15051,7 @@
       <c r="AB477" s="3"/>
       <c r="AC477" s="3"/>
     </row>
-    <row r="478" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
@@ -15068,7 +15080,7 @@
       <c r="AB478" s="3"/>
       <c r="AC478" s="3"/>
     </row>
-    <row r="479" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
@@ -15097,7 +15109,7 @@
       <c r="AB479" s="3"/>
       <c r="AC479" s="3"/>
     </row>
-    <row r="480" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
@@ -15126,7 +15138,7 @@
       <c r="AB480" s="3"/>
       <c r="AC480" s="3"/>
     </row>
-    <row r="481" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
@@ -15155,7 +15167,7 @@
       <c r="AB481" s="3"/>
       <c r="AC481" s="3"/>
     </row>
-    <row r="482" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
@@ -15184,7 +15196,7 @@
       <c r="AB482" s="3"/>
       <c r="AC482" s="3"/>
     </row>
-    <row r="483" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
@@ -15213,7 +15225,7 @@
       <c r="AB483" s="3"/>
       <c r="AC483" s="3"/>
     </row>
-    <row r="484" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
@@ -15242,7 +15254,7 @@
       <c r="AB484" s="3"/>
       <c r="AC484" s="3"/>
     </row>
-    <row r="485" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
@@ -15271,7 +15283,7 @@
       <c r="AB485" s="3"/>
       <c r="AC485" s="3"/>
     </row>
-    <row r="486" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
@@ -15300,7 +15312,7 @@
       <c r="AB486" s="3"/>
       <c r="AC486" s="3"/>
     </row>
-    <row r="487" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
@@ -15329,7 +15341,7 @@
       <c r="AB487" s="3"/>
       <c r="AC487" s="3"/>
     </row>
-    <row r="488" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
@@ -15358,7 +15370,7 @@
       <c r="AB488" s="3"/>
       <c r="AC488" s="3"/>
     </row>
-    <row r="489" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
@@ -15387,7 +15399,7 @@
       <c r="AB489" s="3"/>
       <c r="AC489" s="3"/>
     </row>
-    <row r="490" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
@@ -15416,7 +15428,7 @@
       <c r="AB490" s="3"/>
       <c r="AC490" s="3"/>
     </row>
-    <row r="491" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
@@ -15445,7 +15457,7 @@
       <c r="AB491" s="3"/>
       <c r="AC491" s="3"/>
     </row>
-    <row r="492" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
@@ -15474,7 +15486,7 @@
       <c r="AB492" s="3"/>
       <c r="AC492" s="3"/>
     </row>
-    <row r="493" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
@@ -15503,7 +15515,7 @@
       <c r="AB493" s="3"/>
       <c r="AC493" s="3"/>
     </row>
-    <row r="494" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
@@ -15532,7 +15544,7 @@
       <c r="AB494" s="3"/>
       <c r="AC494" s="3"/>
     </row>
-    <row r="495" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
@@ -15561,7 +15573,7 @@
       <c r="AB495" s="3"/>
       <c r="AC495" s="3"/>
     </row>
-    <row r="496" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
@@ -15590,7 +15602,7 @@
       <c r="AB496" s="3"/>
       <c r="AC496" s="3"/>
     </row>
-    <row r="497" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
@@ -15619,7 +15631,7 @@
       <c r="AB497" s="3"/>
       <c r="AC497" s="3"/>
     </row>
-    <row r="498" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
@@ -15648,7 +15660,7 @@
       <c r="AB498" s="3"/>
       <c r="AC498" s="3"/>
     </row>
-    <row r="499" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
@@ -15677,7 +15689,7 @@
       <c r="AB499" s="3"/>
       <c r="AC499" s="3"/>
     </row>
-    <row r="500" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
@@ -15706,7 +15718,7 @@
       <c r="AB500" s="3"/>
       <c r="AC500" s="3"/>
     </row>
-    <row r="501" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
@@ -15735,7 +15747,7 @@
       <c r="AB501" s="3"/>
       <c r="AC501" s="3"/>
     </row>
-    <row r="502" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
@@ -15764,7 +15776,7 @@
       <c r="AB502" s="3"/>
       <c r="AC502" s="3"/>
     </row>
-    <row r="503" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
@@ -15793,7 +15805,7 @@
       <c r="AB503" s="3"/>
       <c r="AC503" s="3"/>
     </row>
-    <row r="504" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
@@ -15822,7 +15834,7 @@
       <c r="AB504" s="3"/>
       <c r="AC504" s="3"/>
     </row>
-    <row r="505" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
@@ -15851,7 +15863,7 @@
       <c r="AB505" s="3"/>
       <c r="AC505" s="3"/>
     </row>
-    <row r="506" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
@@ -15880,7 +15892,7 @@
       <c r="AB506" s="3"/>
       <c r="AC506" s="3"/>
     </row>
-    <row r="507" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
@@ -15909,7 +15921,7 @@
       <c r="AB507" s="3"/>
       <c r="AC507" s="3"/>
     </row>
-    <row r="508" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
@@ -15938,7 +15950,7 @@
       <c r="AB508" s="3"/>
       <c r="AC508" s="3"/>
     </row>
-    <row r="509" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
@@ -15967,7 +15979,7 @@
       <c r="AB509" s="3"/>
       <c r="AC509" s="3"/>
     </row>
-    <row r="510" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
@@ -15996,7 +16008,7 @@
       <c r="AB510" s="3"/>
       <c r="AC510" s="3"/>
     </row>
-    <row r="511" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
@@ -16025,7 +16037,7 @@
       <c r="AB511" s="3"/>
       <c r="AC511" s="3"/>
     </row>
-    <row r="512" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
@@ -16054,7 +16066,7 @@
       <c r="AB512" s="3"/>
       <c r="AC512" s="3"/>
     </row>
-    <row r="513" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
@@ -16083,7 +16095,7 @@
       <c r="AB513" s="3"/>
       <c r="AC513" s="3"/>
     </row>
-    <row r="514" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
@@ -16112,7 +16124,7 @@
       <c r="AB514" s="3"/>
       <c r="AC514" s="3"/>
     </row>
-    <row r="515" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
@@ -16141,7 +16153,7 @@
       <c r="AB515" s="3"/>
       <c r="AC515" s="3"/>
     </row>
-    <row r="516" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
@@ -16170,7 +16182,7 @@
       <c r="AB516" s="3"/>
       <c r="AC516" s="3"/>
     </row>
-    <row r="517" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
@@ -16199,7 +16211,7 @@
       <c r="AB517" s="3"/>
       <c r="AC517" s="3"/>
     </row>
-    <row r="518" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
@@ -16228,7 +16240,7 @@
       <c r="AB518" s="3"/>
       <c r="AC518" s="3"/>
     </row>
-    <row r="519" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
@@ -16257,7 +16269,7 @@
       <c r="AB519" s="3"/>
       <c r="AC519" s="3"/>
     </row>
-    <row r="520" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
@@ -16286,7 +16298,7 @@
       <c r="AB520" s="3"/>
       <c r="AC520" s="3"/>
     </row>
-    <row r="521" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
@@ -16315,7 +16327,7 @@
       <c r="AB521" s="3"/>
       <c r="AC521" s="3"/>
     </row>
-    <row r="522" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
@@ -16344,7 +16356,7 @@
       <c r="AB522" s="3"/>
       <c r="AC522" s="3"/>
     </row>
-    <row r="523" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
@@ -16373,7 +16385,7 @@
       <c r="AB523" s="3"/>
       <c r="AC523" s="3"/>
     </row>
-    <row r="524" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
@@ -16402,7 +16414,7 @@
       <c r="AB524" s="3"/>
       <c r="AC524" s="3"/>
     </row>
-    <row r="525" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
@@ -16431,7 +16443,7 @@
       <c r="AB525" s="3"/>
       <c r="AC525" s="3"/>
     </row>
-    <row r="526" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
@@ -16460,7 +16472,7 @@
       <c r="AB526" s="3"/>
       <c r="AC526" s="3"/>
     </row>
-    <row r="527" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
@@ -16489,7 +16501,7 @@
       <c r="AB527" s="3"/>
       <c r="AC527" s="3"/>
     </row>
-    <row r="528" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
@@ -16518,7 +16530,7 @@
       <c r="AB528" s="3"/>
       <c r="AC528" s="3"/>
     </row>
-    <row r="529" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
@@ -16547,7 +16559,7 @@
       <c r="AB529" s="3"/>
       <c r="AC529" s="3"/>
     </row>
-    <row r="530" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
@@ -16576,7 +16588,7 @@
       <c r="AB530" s="3"/>
       <c r="AC530" s="3"/>
     </row>
-    <row r="531" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
@@ -16605,7 +16617,7 @@
       <c r="AB531" s="3"/>
       <c r="AC531" s="3"/>
     </row>
-    <row r="532" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
@@ -16634,7 +16646,7 @@
       <c r="AB532" s="3"/>
       <c r="AC532" s="3"/>
     </row>
-    <row r="533" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
@@ -16663,7 +16675,7 @@
       <c r="AB533" s="3"/>
       <c r="AC533" s="3"/>
     </row>
-    <row r="534" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
@@ -16692,7 +16704,7 @@
       <c r="AB534" s="3"/>
       <c r="AC534" s="3"/>
     </row>
-    <row r="535" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
@@ -16721,7 +16733,7 @@
       <c r="AB535" s="3"/>
       <c r="AC535" s="3"/>
     </row>
-    <row r="536" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
@@ -16750,7 +16762,7 @@
       <c r="AB536" s="3"/>
       <c r="AC536" s="3"/>
     </row>
-    <row r="537" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
@@ -16779,7 +16791,7 @@
       <c r="AB537" s="3"/>
       <c r="AC537" s="3"/>
     </row>
-    <row r="538" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
@@ -16808,7 +16820,7 @@
       <c r="AB538" s="3"/>
       <c r="AC538" s="3"/>
     </row>
-    <row r="539" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
@@ -16837,7 +16849,7 @@
       <c r="AB539" s="3"/>
       <c r="AC539" s="3"/>
     </row>
-    <row r="540" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
@@ -16866,7 +16878,7 @@
       <c r="AB540" s="3"/>
       <c r="AC540" s="3"/>
     </row>
-    <row r="541" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
@@ -16895,7 +16907,7 @@
       <c r="AB541" s="3"/>
       <c r="AC541" s="3"/>
     </row>
-    <row r="542" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
       <c r="E542" s="3"/>
@@ -16924,7 +16936,7 @@
       <c r="AB542" s="3"/>
       <c r="AC542" s="3"/>
     </row>
-    <row r="543" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
       <c r="E543" s="3"/>
@@ -16953,7 +16965,7 @@
       <c r="AB543" s="3"/>
       <c r="AC543" s="3"/>
     </row>
-    <row r="544" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
       <c r="E544" s="3"/>
@@ -16982,7 +16994,7 @@
       <c r="AB544" s="3"/>
       <c r="AC544" s="3"/>
     </row>
-    <row r="545" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
       <c r="E545" s="3"/>
@@ -17011,7 +17023,7 @@
       <c r="AB545" s="3"/>
       <c r="AC545" s="3"/>
     </row>
-    <row r="546" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
       <c r="E546" s="3"/>
@@ -17040,7 +17052,7 @@
       <c r="AB546" s="3"/>
       <c r="AC546" s="3"/>
     </row>
-    <row r="547" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>
@@ -17069,7 +17081,7 @@
       <c r="AB547" s="3"/>
       <c r="AC547" s="3"/>
     </row>
-    <row r="548" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
       <c r="E548" s="3"/>
@@ -17098,7 +17110,7 @@
       <c r="AB548" s="3"/>
       <c r="AC548" s="3"/>
     </row>
-    <row r="549" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
@@ -17127,7 +17139,7 @@
       <c r="AB549" s="3"/>
       <c r="AC549" s="3"/>
     </row>
-    <row r="550" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
@@ -17156,7 +17168,7 @@
       <c r="AB550" s="3"/>
       <c r="AC550" s="3"/>
     </row>
-    <row r="551" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
@@ -17185,7 +17197,7 @@
       <c r="AB551" s="3"/>
       <c r="AC551" s="3"/>
     </row>
-    <row r="552" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
@@ -17214,7 +17226,7 @@
       <c r="AB552" s="3"/>
       <c r="AC552" s="3"/>
     </row>
-    <row r="553" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
       <c r="E553" s="3"/>
@@ -17243,7 +17255,7 @@
       <c r="AB553" s="3"/>
       <c r="AC553" s="3"/>
     </row>
-    <row r="554" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
       <c r="E554" s="3"/>
@@ -17272,7 +17284,7 @@
       <c r="AB554" s="3"/>
       <c r="AC554" s="3"/>
     </row>
-    <row r="555" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
       <c r="E555" s="3"/>
@@ -17301,7 +17313,7 @@
       <c r="AB555" s="3"/>
       <c r="AC555" s="3"/>
     </row>
-    <row r="556" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
@@ -17330,7 +17342,7 @@
       <c r="AB556" s="3"/>
       <c r="AC556" s="3"/>
     </row>
-    <row r="557" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
       <c r="E557" s="3"/>
@@ -17359,7 +17371,7 @@
       <c r="AB557" s="3"/>
       <c r="AC557" s="3"/>
     </row>
-    <row r="558" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
@@ -17388,7 +17400,7 @@
       <c r="AB558" s="3"/>
       <c r="AC558" s="3"/>
     </row>
-    <row r="559" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
       <c r="E559" s="3"/>
@@ -17417,7 +17429,7 @@
       <c r="AB559" s="3"/>
       <c r="AC559" s="3"/>
     </row>
-    <row r="560" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
       <c r="E560" s="3"/>
@@ -17446,7 +17458,7 @@
       <c r="AB560" s="3"/>
       <c r="AC560" s="3"/>
     </row>
-    <row r="561" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C561" s="3"/>
       <c r="D561" s="3"/>
       <c r="E561" s="3"/>

--- a/MAT.xlsx
+++ b/MAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AE40B3-ADF8-4FA8-A4D4-54EEE9FD08D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988DA895-CF64-4577-BE4E-3B751FA6AFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{0375D482-E6D0-4B87-8D3C-6E1C384A01FD}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{0375D482-E6D0-4B87-8D3C-6E1C384A01FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t xml:space="preserve">Mattel </t>
   </si>
@@ -191,18 +191,39 @@
   <si>
     <t>WWE, Star Wars, Masters of the Universe</t>
   </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -384,32 +405,37 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -748,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C002F763-855F-442D-9005-7395BE77C34B}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -773,18 +799,18 @@
         <v>4</v>
       </c>
       <c r="G2" s="2">
-        <v>18.07</v>
+        <v>18.649999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3">
-        <v>336.9</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
+      <c r="G3" s="21">
+        <v>332.2</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -794,9 +820,9 @@
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="21">
         <f>+G2*G3</f>
-        <v>6087.7829999999994</v>
+        <v>6195.53</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -806,22 +832,23 @@
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="3">
-        <v>723.53200000000004</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
+      <c r="G5" s="21">
+        <v>870.452</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="3">
-        <v>2333.2600000000002</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>10</v>
+      <c r="G6" s="21">
+        <f>598.873+1737.66</f>
+        <v>2336.5330000000004</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -835,9 +862,9 @@
       <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="21">
         <f>+G4-G5+G6</f>
-        <v>7697.5109999999995</v>
+        <v>7661.6109999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -885,11 +912,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C373B5-CBD9-4D03-92A7-78DC5E16BE18}">
   <dimension ref="A1:AC561"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -929,75 +956,99 @@
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21">
         <v>470.48599999999999</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="21">
         <v>1146.961</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21">
         <v>477.786</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="21">
         <v>1108.288</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21">
+        <v>510.79599999999999</v>
+      </c>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21">
         <v>344.09300000000002</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="21">
         <v>771.827</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3">
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21">
         <v>331.72199999999998</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="21">
         <v>735.61599999999999</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21">
+        <v>507.76600000000002</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22">
         <v>814.57899999999995</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="22">
         <v>1918.788</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17">
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22">
         <v>809.50800000000004</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="22">
         <v>1843.904</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22">
+        <v>1018.562</v>
+      </c>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
@@ -1007,26 +1058,28 @@
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
         <v>488.79199999999997</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="21">
         <v>940.85400000000004</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3">
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21">
         <v>420.63799999999998</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="21">
         <v>864.90800000000002</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21">
+        <v>499.61099999999999</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1047,42 +1100,54 @@
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="21">
         <f t="shared" ref="C7:H7" si="0">+C5-C6</f>
         <v>0</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="21">
         <f t="shared" si="0"/>
         <v>325.78699999999998</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="21">
         <f t="shared" si="0"/>
         <v>977.93399999999997</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="21">
         <f t="shared" si="0"/>
         <v>388.87000000000006</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="21">
         <f>+I5-I6</f>
         <v>978.99599999999998</v>
       </c>
-      <c r="J7" s="3">
-        <f t="shared" ref="J7" si="1">+J5-J6</f>
+      <c r="J7" s="21">
+        <f t="shared" ref="J7:N7" si="1">+J5-J6</f>
         <v>0</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="K7" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="21">
+        <f t="shared" si="1"/>
+        <v>518.95100000000002</v>
+      </c>
+      <c r="M7" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -1103,26 +1168,28 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21">
         <v>76.046999999999997</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="21">
         <v>124.265</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3">
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21">
         <v>71.441000000000003</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="21">
         <v>104.956</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21">
+        <v>79.123999999999995</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1143,26 +1210,28 @@
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21">
         <v>364.77699999999999</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="21">
         <v>379.81099999999998</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3">
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21">
         <v>352.947</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="21">
         <v>385.69900000000001</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21">
+        <v>361.32799999999997</v>
+      </c>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -1183,42 +1252,54 @@
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="21">
         <f t="shared" ref="C10:H10" si="2">+C7-SUM(C8:C9)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="21">
         <f t="shared" si="2"/>
         <v>-115.03699999999998</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="21">
         <f t="shared" si="2"/>
         <v>473.858</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="21">
         <f t="shared" si="2"/>
         <v>-35.517999999999972</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="21">
         <f>+I7-SUM(I8:I9)</f>
         <v>488.34099999999995</v>
       </c>
-      <c r="J10" s="3">
-        <f t="shared" ref="J10" si="3">+J7-SUM(J8:J9)</f>
+      <c r="J10" s="21">
+        <f t="shared" ref="J10:N10" si="3">+J7-SUM(J8:J9)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="K10" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="21">
+        <f t="shared" si="3"/>
+        <v>78.499000000000024</v>
+      </c>
+      <c r="M10" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -1239,26 +1320,28 @@
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21">
         <v>31.128</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="21">
         <v>30.716000000000001</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3">
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21">
         <v>30.059000000000001</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="21">
         <v>29.370999999999999</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21">
+        <v>29.353999999999999</v>
+      </c>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -1279,26 +1362,28 @@
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21">
         <v>6.5190000000000001</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="21">
         <v>4.569</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3">
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21">
         <v>17.282</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="21">
         <v>9.7870000000000008</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21">
+        <v>12.365</v>
+      </c>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -1319,26 +1404,28 @@
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21">
         <v>-1.4390000000000001</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="21">
         <v>-2.391</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3">
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21">
         <v>5.6130000000000004</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="21">
         <v>-2.9239999999999999</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21">
+        <v>-1.417</v>
+      </c>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -1359,42 +1446,54 @@
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="21">
         <f t="shared" ref="C14:H14" si="4">+C10-C11+C12-C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="21">
         <f t="shared" si="4"/>
         <v>-138.20699999999997</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="21">
         <f t="shared" si="4"/>
         <v>450.10200000000003</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="21">
         <f t="shared" si="4"/>
         <v>-53.907999999999973</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="21">
         <f>+I10-I11+I12-I13</f>
         <v>471.68099999999993</v>
       </c>
-      <c r="J14" s="3">
-        <f t="shared" ref="J14" si="5">+J10-J11+J12-J13</f>
+      <c r="J14" s="21">
+        <f t="shared" ref="J14:O14" si="5">+J10-J11+J12-J13</f>
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="K14" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="21">
+        <f t="shared" si="5"/>
+        <v>62.927000000000028</v>
+      </c>
+      <c r="M14" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -1415,26 +1514,28 @@
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21">
         <v>-26.998999999999999</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="21">
         <v>309.34199999999998</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21">
         <v>-20.79</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="21">
         <v>106.35</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21">
+        <v>16.210999999999999</v>
+      </c>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -1455,26 +1556,28 @@
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21">
         <v>-4.7370000000000001</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="21">
         <v>-5.5590000000000002</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3">
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21">
         <v>-4.8369999999999997</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="21">
         <v>-7.0449999999999999</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21">
+        <v>-6.6360000000000001</v>
+      </c>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -1495,42 +1598,54 @@
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="21">
         <f t="shared" ref="C17:H17" si="6">+C14-C15-C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="21">
         <f t="shared" si="6"/>
         <v>-106.47099999999998</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="21">
         <f t="shared" si="6"/>
         <v>146.31900000000005</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="21">
         <f t="shared" si="6"/>
         <v>-28.280999999999974</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="21">
         <f>+I14-I15-I16</f>
         <v>372.37599999999992</v>
       </c>
-      <c r="J17" s="3">
-        <f t="shared" ref="J17" si="7">+J14-J15-J16</f>
+      <c r="J17" s="21">
+        <f t="shared" ref="J17:O17" si="7">+J14-J15-J16</f>
         <v>0</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="K17" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="21">
+        <f t="shared" si="7"/>
+        <v>53.352000000000032</v>
+      </c>
+      <c r="M17" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -1548,18 +1663,18 @@
       <c r="AC17" s="3"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -1593,7 +1708,7 @@
         <v>0.41316827573353976</v>
       </c>
       <c r="F19" s="18" t="e">
-        <f t="shared" ref="F19:J19" si="9">+F17/F20</f>
+        <f t="shared" ref="F19:N19" si="9">+F17/F20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G19" s="18" t="e">
@@ -1612,10 +1727,22 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="K19" s="18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="18">
+        <f t="shared" si="9"/>
+        <v>0.16490639169904409</v>
+      </c>
+      <c r="M19" s="18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -1653,7 +1780,9 @@
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3">
+        <v>323.529</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -1725,10 +1854,22 @@
         <f t="shared" ref="J22" si="11">+J3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="K22" s="19" t="e">
+        <f t="shared" ref="K22:K24" si="12">+K3/G3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="19">
+        <f t="shared" ref="L22:L24" si="13">+L3/H3-1</f>
+        <v>6.9089508692175894E-2</v>
+      </c>
+      <c r="M22" s="19">
+        <f t="shared" ref="M22:M24" si="14">+M3/I3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="N22" s="19" t="e">
+        <f t="shared" ref="N22:N24" si="15">+N3/J3-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -1762,17 +1903,29 @@
         <v>-3.5952489588570669E-2</v>
       </c>
       <c r="I23" s="19">
-        <f t="shared" ref="I23:J24" si="12">+I4/E4-1</f>
+        <f t="shared" ref="I23:J24" si="16">+I4/E4-1</f>
         <v>-4.6915953963776902E-2</v>
       </c>
       <c r="J23" s="19" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="L23" s="19">
+        <f t="shared" si="13"/>
+        <v>0.53069739118900783</v>
+      </c>
+      <c r="M23" s="19">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="N23" s="19" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -1806,17 +1959,29 @@
         <v>-6.2253016588936783E-3</v>
       </c>
       <c r="I24" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-3.9026718949670358E-2</v>
       </c>
       <c r="J24" s="19" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="L24" s="19">
+        <f t="shared" si="13"/>
+        <v>0.25824821990641222</v>
+      </c>
+      <c r="M24" s="19">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="N24" s="19" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -1838,27 +2003,27 @@
         <v>38</v>
       </c>
       <c r="C25" s="19" t="e">
-        <f t="shared" ref="C25:H25" si="13">+C7/C5</f>
+        <f t="shared" ref="C25:H25" si="17">+C7/C5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D25" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.3999452477905765</v>
       </c>
       <c r="E25" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.50966234935803223</v>
       </c>
       <c r="F25" s="19" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G25" s="19" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H25" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.48037820503318068</v>
       </c>
       <c r="I25" s="19">
@@ -1866,13 +2031,25 @@
         <v>0.53093653465690183</v>
       </c>
       <c r="J25" s="19" t="e">
-        <f t="shared" ref="J25" si="14">+J7/J5</f>
+        <f t="shared" ref="J25:N25" si="18">+J7/J5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="K25" s="19" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="19">
+        <f t="shared" si="18"/>
+        <v>0.50949377652023153</v>
+      </c>
+      <c r="M25" s="19" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="19" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -1894,27 +2071,27 @@
         <v>39</v>
       </c>
       <c r="C26" s="19" t="e">
-        <f t="shared" ref="C26:H26" si="15">+C10/C5</f>
+        <f t="shared" ref="C26:H26" si="19">+C10/C5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D26" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-0.14122264384424346</v>
       </c>
       <c r="E26" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.24695693323076859</v>
       </c>
       <c r="F26" s="19" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G26" s="19" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-4.3876033343709972E-2</v>
       </c>
       <c r="I26" s="19">
@@ -1922,13 +2099,25 @@
         <v>0.26484079431467145</v>
       </c>
       <c r="J26" s="19" t="e">
-        <f t="shared" ref="J26" si="16">+J10/J5</f>
+        <f t="shared" ref="J26:N26" si="20">+J10/J5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="K26" s="19" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="19">
+        <f t="shared" si="20"/>
+        <v>7.7068455332125113E-2</v>
+      </c>
+      <c r="M26" s="19" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="19" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -1950,27 +2139,27 @@
         <v>40</v>
       </c>
       <c r="C27" s="19" t="e">
-        <f t="shared" ref="C27:H27" si="17">+C15/C14</f>
+        <f t="shared" ref="C27:H27" si="21">+C15/C14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D27" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.19535189968670189</v>
       </c>
       <c r="E27" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.68727088526600633</v>
       </c>
       <c r="F27" s="19" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G27" s="19" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.38565704533649942</v>
       </c>
       <c r="I27" s="19">
@@ -1978,13 +2167,25 @@
         <v>0.22547018005813252</v>
       </c>
       <c r="J27" s="19" t="e">
-        <f t="shared" ref="J27" si="18">+J15/J14</f>
+        <f t="shared" ref="J27:N27" si="22">+J15/J14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="K27" s="19" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="19">
+        <f t="shared" si="22"/>
+        <v>0.25761596770861461</v>
+      </c>
+      <c r="M27" s="19" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="19" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>

--- a/MAT.xlsx
+++ b/MAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988DA895-CF64-4577-BE4E-3B751FA6AFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3BB6C3-FA25-4C92-A66D-D5B70A32E70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{0375D482-E6D0-4B87-8D3C-6E1C384A01FD}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{0375D482-E6D0-4B87-8D3C-6E1C384A01FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t xml:space="preserve">Mattel </t>
   </si>
@@ -211,13 +211,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -405,37 +411,41 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -774,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C002F763-855F-442D-9005-7395BE77C34B}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -799,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="2">
-        <v>18.649999999999999</v>
+        <v>17.309999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -822,7 +832,7 @@
       </c>
       <c r="G4" s="21">
         <f>+G2*G3</f>
-        <v>6195.53</v>
+        <v>5750.3819999999996</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -864,7 +874,7 @@
       </c>
       <c r="G7" s="21">
         <f>+G4-G5+G6</f>
-        <v>7661.6109999999999</v>
+        <v>7216.4629999999997</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -912,11 +922,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C373B5-CBD9-4D03-92A7-78DC5E16BE18}">
   <dimension ref="A1:AC561"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -968,28 +978,46 @@
       <c r="N2" s="20" t="s">
         <v>54</v>
       </c>
+      <c r="O2" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="21">
+        <v>470.48599999999999</v>
+      </c>
       <c r="D3" s="21">
-        <v>470.48599999999999</v>
+        <v>624.452</v>
       </c>
       <c r="E3" s="21">
         <v>1146.961</v>
       </c>
       <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="G3" s="21">
+        <v>477.786</v>
+      </c>
       <c r="H3" s="21">
-        <v>477.786</v>
+        <v>606.48</v>
       </c>
       <c r="I3" s="21">
         <v>1108.288</v>
       </c>
       <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="K3" s="21">
+        <v>491.36500000000001</v>
+      </c>
       <c r="L3" s="21">
         <v>510.79599999999999</v>
       </c>
@@ -1000,23 +1028,29 @@
       <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="21">
+        <v>344.09300000000002</v>
+      </c>
       <c r="D4" s="21">
-        <v>344.09300000000002</v>
+        <v>462.71199999999999</v>
       </c>
       <c r="E4" s="21">
         <v>771.827</v>
       </c>
       <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="G4" s="21">
+        <v>331.72199999999998</v>
+      </c>
       <c r="H4" s="21">
-        <v>331.72199999999998</v>
+        <v>319.77300000000002</v>
       </c>
       <c r="I4" s="21">
         <v>735.61599999999999</v>
       </c>
       <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="K4" s="21">
+        <v>335.26400000000001</v>
+      </c>
       <c r="L4" s="21">
         <v>507.76600000000002</v>
       </c>
@@ -1027,23 +1061,29 @@
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="22">
+        <v>814.57899999999995</v>
+      </c>
       <c r="D5" s="22">
-        <v>814.57899999999995</v>
+        <v>1087.164</v>
       </c>
       <c r="E5" s="22">
         <v>1918.788</v>
       </c>
       <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="22">
+        <v>809.50800000000004</v>
+      </c>
       <c r="H5" s="22">
-        <v>809.50800000000004</v>
+        <v>1079.7280000000001</v>
       </c>
       <c r="I5" s="22">
         <v>1843.904</v>
       </c>
       <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="K5" s="22">
+        <v>826.62900000000002</v>
+      </c>
       <c r="L5" s="22">
         <v>1018.562</v>
       </c>
@@ -1058,23 +1098,29 @@
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="21">
+        <v>488.79199999999997</v>
+      </c>
       <c r="D6" s="21">
-        <v>488.79199999999997</v>
+        <v>597.35799999999995</v>
       </c>
       <c r="E6" s="21">
         <v>940.85400000000004</v>
       </c>
       <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="G6" s="21">
+        <v>420.63799999999998</v>
+      </c>
       <c r="H6" s="21">
-        <v>420.63799999999998</v>
+        <v>548.99199999999996</v>
       </c>
       <c r="I6" s="21">
         <v>864.90800000000002</v>
       </c>
       <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="K6" s="21">
+        <v>418.53300000000002</v>
+      </c>
       <c r="L6" s="21">
         <v>499.61099999999999</v>
       </c>
@@ -1101,51 +1147,51 @@
         <v>21</v>
       </c>
       <c r="C7" s="21">
-        <f t="shared" ref="C7:H7" si="0">+C5-C6</f>
-        <v>0</v>
+        <f t="shared" ref="C7:D7" si="0">+C5-C6</f>
+        <v>325.78699999999998</v>
       </c>
       <c r="D7" s="21">
         <f t="shared" si="0"/>
-        <v>325.78699999999998</v>
+        <v>489.80600000000004</v>
       </c>
       <c r="E7" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C7:H7" si="1">+E5-E6</f>
         <v>977.93399999999997</v>
       </c>
       <c r="F7" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="G7" si="2">+G5-G6</f>
+        <v>388.87000000000006</v>
       </c>
       <c r="H7" s="21">
-        <f t="shared" si="0"/>
-        <v>388.87000000000006</v>
+        <f t="shared" si="1"/>
+        <v>530.7360000000001</v>
       </c>
       <c r="I7" s="21">
         <f>+I5-I6</f>
         <v>978.99599999999998</v>
       </c>
       <c r="J7" s="21">
-        <f t="shared" ref="J7:N7" si="1">+J5-J6</f>
+        <f t="shared" ref="J7:N7" si="3">+J5-J6</f>
         <v>0</v>
       </c>
       <c r="K7" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>408.096</v>
+      </c>
+      <c r="L7" s="21">
+        <f t="shared" si="3"/>
+        <v>518.95100000000002</v>
+      </c>
+      <c r="M7" s="21">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L7" s="21">
-        <f t="shared" si="1"/>
-        <v>518.95100000000002</v>
-      </c>
-      <c r="M7" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="N7" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O7" s="3"/>
@@ -1168,23 +1214,29 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="21">
+        <v>76.046999999999997</v>
+      </c>
       <c r="D8" s="21">
-        <v>76.046999999999997</v>
+        <v>90.025999999999996</v>
       </c>
       <c r="E8" s="21">
         <v>124.265</v>
       </c>
       <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="21">
+        <v>71.441000000000003</v>
+      </c>
       <c r="H8" s="21">
-        <v>71.441000000000003</v>
+        <v>73.718999999999994</v>
       </c>
       <c r="I8" s="21">
         <v>104.956</v>
       </c>
       <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
+      <c r="K8" s="21">
+        <v>70.197999999999993</v>
+      </c>
       <c r="L8" s="21">
         <v>79.123999999999995</v>
       </c>
@@ -1210,23 +1262,29 @@
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="21">
+        <v>364.77699999999999</v>
+      </c>
       <c r="D9" s="21">
-        <v>364.77699999999999</v>
+        <v>337.005</v>
       </c>
       <c r="E9" s="21">
         <v>379.81099999999998</v>
       </c>
       <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="21">
+        <v>352.947</v>
+      </c>
       <c r="H9" s="21">
-        <v>352.947</v>
+        <v>373.81</v>
       </c>
       <c r="I9" s="21">
         <v>385.69900000000001</v>
       </c>
       <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="K9" s="21">
+        <v>390.87799999999999</v>
+      </c>
       <c r="L9" s="21">
         <v>361.32799999999997</v>
       </c>
@@ -1253,51 +1311,51 @@
         <v>24</v>
       </c>
       <c r="C10" s="21">
-        <f t="shared" ref="C10:H10" si="2">+C7-SUM(C8:C9)</f>
+        <f t="shared" ref="C10:D10" si="4">+C7-SUM(C8:C9)</f>
+        <v>-115.03699999999998</v>
+      </c>
+      <c r="D10" s="21">
+        <f t="shared" si="4"/>
+        <v>62.775000000000034</v>
+      </c>
+      <c r="E10" s="21">
+        <f t="shared" ref="C10:H10" si="5">+E7-SUM(E8:E9)</f>
+        <v>473.858</v>
+      </c>
+      <c r="F10" s="21">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D10" s="21">
-        <f t="shared" si="2"/>
-        <v>-115.03699999999998</v>
-      </c>
-      <c r="E10" s="21">
-        <f t="shared" si="2"/>
-        <v>473.858</v>
-      </c>
-      <c r="F10" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G10" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="G10" si="6">+G7-SUM(G8:G9)</f>
+        <v>-35.517999999999972</v>
       </c>
       <c r="H10" s="21">
-        <f t="shared" si="2"/>
-        <v>-35.517999999999972</v>
+        <f t="shared" si="5"/>
+        <v>83.207000000000107</v>
       </c>
       <c r="I10" s="21">
         <f>+I7-SUM(I8:I9)</f>
         <v>488.34099999999995</v>
       </c>
       <c r="J10" s="21">
-        <f t="shared" ref="J10:N10" si="3">+J7-SUM(J8:J9)</f>
+        <f t="shared" ref="J10:N10" si="7">+J7-SUM(J8:J9)</f>
         <v>0</v>
       </c>
       <c r="K10" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>-52.979999999999961</v>
+      </c>
+      <c r="L10" s="21">
+        <f t="shared" si="7"/>
+        <v>78.499000000000024</v>
+      </c>
+      <c r="M10" s="21">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L10" s="21">
-        <f t="shared" si="3"/>
-        <v>78.499000000000024</v>
-      </c>
-      <c r="M10" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="N10" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O10" s="3"/>
@@ -1320,23 +1378,29 @@
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="21">
+        <v>31.128</v>
+      </c>
       <c r="D11" s="21">
-        <v>31.128</v>
+        <v>30.641999999999999</v>
       </c>
       <c r="E11" s="21">
         <v>30.716000000000001</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="G11" s="21">
+        <v>30.059000000000001</v>
+      </c>
       <c r="H11" s="21">
-        <v>30.059000000000001</v>
+        <v>29.984000000000002</v>
       </c>
       <c r="I11" s="21">
         <v>29.370999999999999</v>
       </c>
       <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
+      <c r="K11" s="21">
+        <v>29.234000000000002</v>
+      </c>
       <c r="L11" s="21">
         <v>29.353999999999999</v>
       </c>
@@ -1362,23 +1426,29 @@
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="21">
+        <v>6.5190000000000001</v>
+      </c>
       <c r="D12" s="21">
-        <v>6.5190000000000001</v>
+        <v>4.3209999999999997</v>
       </c>
       <c r="E12" s="21">
         <v>4.569</v>
       </c>
       <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="21">
+        <v>17.282</v>
+      </c>
       <c r="H12" s="21">
-        <v>17.282</v>
+        <v>12.398</v>
       </c>
       <c r="I12" s="21">
         <v>9.7870000000000008</v>
       </c>
       <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="21">
+        <v>15.952</v>
+      </c>
       <c r="L12" s="21">
         <v>12.365</v>
       </c>
@@ -1404,23 +1474,29 @@
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="21">
+        <v>-1.4390000000000001</v>
+      </c>
       <c r="D13" s="21">
-        <v>-1.4390000000000001</v>
+        <v>-2.1469999999999998</v>
       </c>
       <c r="E13" s="21">
         <v>-2.391</v>
       </c>
       <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="G13" s="21">
+        <v>5.6130000000000004</v>
+      </c>
       <c r="H13" s="21">
-        <v>5.6130000000000004</v>
+        <v>6.11</v>
       </c>
       <c r="I13" s="21">
         <v>-2.9239999999999999</v>
       </c>
       <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
+      <c r="K13" s="21">
+        <v>13.04</v>
+      </c>
       <c r="L13" s="21">
         <v>-1.417</v>
       </c>
@@ -1447,51 +1523,51 @@
         <v>28</v>
       </c>
       <c r="C14" s="21">
-        <f t="shared" ref="C14:H14" si="4">+C10-C11+C12-C13</f>
+        <f t="shared" ref="C14:D14" si="8">+C10-C11+C12-C13</f>
+        <v>-138.20699999999997</v>
+      </c>
+      <c r="D14" s="21">
+        <f t="shared" si="8"/>
+        <v>38.601000000000035</v>
+      </c>
+      <c r="E14" s="21">
+        <f t="shared" ref="C14:H14" si="9">+E10-E11+E12-E13</f>
+        <v>450.10200000000003</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="D14" s="21">
-        <f t="shared" si="4"/>
-        <v>-138.20699999999997</v>
-      </c>
-      <c r="E14" s="21">
-        <f t="shared" si="4"/>
-        <v>450.10200000000003</v>
-      </c>
-      <c r="F14" s="21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="G14" s="21">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="G14" si="10">+G10-G11+G12-G13</f>
+        <v>-53.907999999999973</v>
       </c>
       <c r="H14" s="21">
-        <f t="shared" si="4"/>
-        <v>-53.907999999999973</v>
+        <f t="shared" si="9"/>
+        <v>59.511000000000109</v>
       </c>
       <c r="I14" s="21">
         <f>+I10-I11+I12-I13</f>
         <v>471.68099999999993</v>
       </c>
       <c r="J14" s="21">
-        <f t="shared" ref="J14:O14" si="5">+J10-J11+J12-J13</f>
+        <f t="shared" ref="J14:N14" si="11">+J10-J11+J12-J13</f>
         <v>0</v>
       </c>
       <c r="K14" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
+        <v>-79.301999999999964</v>
+      </c>
+      <c r="L14" s="21">
+        <f t="shared" si="11"/>
+        <v>62.927000000000028</v>
+      </c>
+      <c r="M14" s="21">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L14" s="21">
-        <f t="shared" si="5"/>
-        <v>62.927000000000028</v>
-      </c>
-      <c r="M14" s="21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="N14" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O14" s="3"/>
@@ -1514,23 +1590,29 @@
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="21">
+        <v>-26.998999999999999</v>
+      </c>
       <c r="D15" s="21">
-        <v>-26.998999999999999</v>
+        <v>14.423999999999999</v>
       </c>
       <c r="E15" s="21">
         <v>309.34199999999998</v>
       </c>
       <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="G15" s="21">
+        <v>-20.79</v>
+      </c>
       <c r="H15" s="21">
-        <v>-20.79</v>
+        <v>9.1959999999999997</v>
       </c>
       <c r="I15" s="21">
         <v>106.35</v>
       </c>
       <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+      <c r="K15" s="21">
+        <v>-30.565000000000001</v>
+      </c>
       <c r="L15" s="21">
         <v>16.210999999999999</v>
       </c>
@@ -1556,23 +1638,29 @@
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="21">
+        <v>-4.7370000000000001</v>
+      </c>
       <c r="D16" s="21">
-        <v>-4.7370000000000001</v>
+        <v>-3.01</v>
       </c>
       <c r="E16" s="21">
         <v>-5.5590000000000002</v>
       </c>
       <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="G16" s="21">
+        <v>-4.8369999999999997</v>
+      </c>
       <c r="H16" s="21">
-        <v>-4.8369999999999997</v>
+        <v>-6.5449999999999999</v>
       </c>
       <c r="I16" s="21">
         <v>-7.0449999999999999</v>
       </c>
       <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+      <c r="K16" s="21">
+        <v>-8.4179999999999993</v>
+      </c>
       <c r="L16" s="21">
         <v>-6.6360000000000001</v>
       </c>
@@ -1599,51 +1687,51 @@
         <v>31</v>
       </c>
       <c r="C17" s="21">
-        <f t="shared" ref="C17:H17" si="6">+C14-C15-C16</f>
+        <f t="shared" ref="C17:D17" si="12">+C14-C15-C16</f>
+        <v>-106.47099999999998</v>
+      </c>
+      <c r="D17" s="21">
+        <f t="shared" si="12"/>
+        <v>27.187000000000033</v>
+      </c>
+      <c r="E17" s="21">
+        <f t="shared" ref="C17:H17" si="13">+E14-E15-E16</f>
+        <v>146.31900000000005</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D17" s="21">
-        <f t="shared" si="6"/>
-        <v>-106.47099999999998</v>
-      </c>
-      <c r="E17" s="21">
-        <f t="shared" si="6"/>
-        <v>146.31900000000005</v>
-      </c>
-      <c r="F17" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="G17" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="G17" si="14">+G14-G15-G16</f>
+        <v>-28.280999999999974</v>
       </c>
       <c r="H17" s="21">
-        <f t="shared" si="6"/>
-        <v>-28.280999999999974</v>
+        <f t="shared" si="13"/>
+        <v>56.860000000000113</v>
       </c>
       <c r="I17" s="21">
         <f>+I14-I15-I16</f>
         <v>372.37599999999992</v>
       </c>
       <c r="J17" s="21">
-        <f t="shared" ref="J17:O17" si="7">+J14-J15-J16</f>
+        <f t="shared" ref="J17:N17" si="15">+J14-J15-J16</f>
         <v>0</v>
       </c>
       <c r="K17" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
+        <v>-40.318999999999967</v>
+      </c>
+      <c r="L17" s="21">
+        <f t="shared" si="15"/>
+        <v>53.352000000000032</v>
+      </c>
+      <c r="M17" s="21">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L17" s="21">
-        <f t="shared" si="7"/>
-        <v>53.352000000000032</v>
-      </c>
-      <c r="M17" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="N17" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O17" s="3"/>
@@ -1695,52 +1783,52 @@
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="18" t="e">
-        <f t="shared" ref="C19:D19" si="8">+C17/C20</f>
-        <v>#DIV/0!</v>
+      <c r="C19" s="18">
+        <f t="shared" ref="C19:D19" si="16">+C17/C20</f>
+        <v>-0.29996731860416626</v>
       </c>
       <c r="D19" s="18">
-        <f t="shared" si="8"/>
-        <v>-0.29996731860416626</v>
+        <f t="shared" si="16"/>
+        <v>7.6631235959490146E-2</v>
       </c>
       <c r="E19" s="18">
         <f>+E17/E20</f>
         <v>0.41316827573353976</v>
       </c>
       <c r="F19" s="18" t="e">
-        <f t="shared" ref="F19:N19" si="9">+F17/F20</f>
+        <f t="shared" ref="F19:N19" si="17">+F17/F20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G19" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="18">
-        <f t="shared" si="9"/>
-        <v>-8.1527755356195594E-2</v>
+        <f t="shared" si="17"/>
+        <v>0.16509440810199535</v>
       </c>
       <c r="I19" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1.0982631341447946</v>
       </c>
       <c r="J19" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="18" t="e">
-        <f t="shared" si="9"/>
+      <c r="K19" s="18">
+        <f t="shared" si="17"/>
+        <v>-0.12311408182770309</v>
+      </c>
+      <c r="L19" s="18">
+        <f t="shared" si="17"/>
+        <v>0.16490639169904409</v>
+      </c>
+      <c r="M19" s="18" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="18">
-        <f t="shared" si="9"/>
-        <v>0.16490639169904409</v>
-      </c>
-      <c r="M19" s="18" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="N19" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O19" s="3"/>
@@ -1763,9 +1851,11 @@
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3">
+        <v>354.94200000000001</v>
+      </c>
       <c r="D20" s="3">
-        <v>354.94200000000001</v>
+        <v>354.77699999999999</v>
       </c>
       <c r="E20" s="3">
         <v>354.13900000000001</v>
@@ -1773,13 +1863,15 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
-        <v>346.88799999999998</v>
+        <v>344.40899999999999</v>
       </c>
       <c r="I20" s="3">
         <v>339.05900000000003</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3">
+        <v>327.49299999999999</v>
+      </c>
       <c r="L20" s="3">
         <v>323.529</v>
       </c>
@@ -1838,36 +1930,36 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="19" t="e">
-        <f t="shared" ref="G22:H24" si="10">+G3/C3-1</f>
-        <v>#DIV/0!</v>
+      <c r="G22" s="19">
+        <f t="shared" ref="G22:H24" si="18">+G3/C3-1</f>
+        <v>1.5515870822936373E-2</v>
       </c>
       <c r="H22" s="19">
-        <f t="shared" si="10"/>
-        <v>1.5515870822936373E-2</v>
+        <f t="shared" si="18"/>
+        <v>-2.8780434685131917E-2</v>
       </c>
       <c r="I22" s="19">
         <f>+I3/E3-1</f>
         <v>-3.3717798599952387E-2</v>
       </c>
       <c r="J22" s="19" t="e">
-        <f t="shared" ref="J22" si="11">+J3/F3-1</f>
+        <f t="shared" ref="J22" si="19">+J3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="19" t="e">
-        <f t="shared" ref="K22:K24" si="12">+K3/G3-1</f>
-        <v>#DIV/0!</v>
+      <c r="K22" s="19">
+        <f t="shared" ref="K22:K24" si="20">+K3/G3-1</f>
+        <v>2.8420673690731757E-2</v>
       </c>
       <c r="L22" s="19">
-        <f t="shared" ref="L22:L24" si="13">+L3/H3-1</f>
-        <v>6.9089508692175894E-2</v>
+        <f t="shared" ref="L22:L24" si="21">+L3/H3-1</f>
+        <v>-0.15776942355889723</v>
       </c>
       <c r="M22" s="19">
-        <f t="shared" ref="M22:M24" si="14">+M3/I3-1</f>
+        <f t="shared" ref="M22:M24" si="22">+M3/I3-1</f>
         <v>-1</v>
       </c>
       <c r="N22" s="19" t="e">
-        <f t="shared" ref="N22:N24" si="15">+N3/J3-1</f>
+        <f t="shared" ref="N22:N24" si="23">+N3/J3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O22" s="3"/>
@@ -1894,36 +1986,36 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="19" t="e">
-        <f t="shared" si="10"/>
+      <c r="G23" s="19">
+        <f t="shared" si="18"/>
+        <v>-3.5952489588570669E-2</v>
+      </c>
+      <c r="H23" s="19">
+        <f t="shared" si="18"/>
+        <v>-0.30891569702104105</v>
+      </c>
+      <c r="I23" s="19">
+        <f t="shared" ref="I23:J24" si="24">+I4/E4-1</f>
+        <v>-4.6915953963776902E-2</v>
+      </c>
+      <c r="J23" s="19" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="19">
-        <f t="shared" si="10"/>
-        <v>-3.5952489588570669E-2</v>
-      </c>
-      <c r="I23" s="19">
-        <f t="shared" ref="I23:J24" si="16">+I4/E4-1</f>
-        <v>-4.6915953963776902E-2</v>
-      </c>
-      <c r="J23" s="19" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="19" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+      <c r="K23" s="19">
+        <f t="shared" si="20"/>
+        <v>1.0677615593780443E-2</v>
       </c>
       <c r="L23" s="19">
-        <f t="shared" si="13"/>
-        <v>0.53069739118900783</v>
+        <f t="shared" si="21"/>
+        <v>0.58789516313134627</v>
       </c>
       <c r="M23" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
       <c r="N23" s="19" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="3"/>
@@ -1946,40 +2038,40 @@
       <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="19" t="e">
-        <f t="shared" si="10"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="24">
+        <f t="shared" si="18"/>
+        <v>-6.2253016588936783E-3</v>
+      </c>
+      <c r="H24" s="24">
+        <f>+H5/D5-1</f>
+        <v>-6.8398144162241659E-3</v>
+      </c>
+      <c r="I24" s="24">
+        <f t="shared" si="24"/>
+        <v>-3.9026718949670358E-2</v>
+      </c>
+      <c r="J24" s="24" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="19">
-        <f t="shared" si="10"/>
-        <v>-6.2253016588936783E-3</v>
-      </c>
-      <c r="I24" s="19">
-        <f t="shared" si="16"/>
-        <v>-3.9026718949670358E-2</v>
-      </c>
-      <c r="J24" s="19" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="19" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L24" s="19">
-        <f t="shared" si="13"/>
-        <v>0.25824821990641222</v>
-      </c>
-      <c r="M24" s="19">
-        <f t="shared" si="14"/>
+      <c r="K24" s="24">
+        <f t="shared" si="20"/>
+        <v>2.1149883633021505E-2</v>
+      </c>
+      <c r="L24" s="24">
+        <f t="shared" si="21"/>
+        <v>-5.6649452454692328E-2</v>
+      </c>
+      <c r="M24" s="24">
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
-      <c r="N24" s="19" t="e">
-        <f t="shared" si="15"/>
+      <c r="N24" s="24" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O24" s="3"/>
@@ -2002,52 +2094,52 @@
       <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="19" t="e">
-        <f t="shared" ref="C25:H25" si="17">+C7/C5</f>
+      <c r="C25" s="19">
+        <f t="shared" ref="C25:H25" si="25">+C7/C5</f>
+        <v>0.3999452477905765</v>
+      </c>
+      <c r="D25" s="19">
+        <f t="shared" si="25"/>
+        <v>0.45053552177960277</v>
+      </c>
+      <c r="E25" s="19">
+        <f t="shared" si="25"/>
+        <v>0.50966234935803223</v>
+      </c>
+      <c r="F25" s="19" t="e">
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="19">
-        <f t="shared" si="17"/>
-        <v>0.3999452477905765</v>
-      </c>
-      <c r="E25" s="19">
-        <f t="shared" si="17"/>
-        <v>0.50966234935803223</v>
-      </c>
-      <c r="F25" s="19" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="19" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+      <c r="G25" s="19">
+        <f t="shared" si="25"/>
+        <v>0.48037820503318068</v>
       </c>
       <c r="H25" s="19">
-        <f t="shared" si="17"/>
-        <v>0.48037820503318068</v>
+        <f t="shared" si="25"/>
+        <v>0.49154601899737721</v>
       </c>
       <c r="I25" s="19">
         <f>+I7/I5</f>
         <v>0.53093653465690183</v>
       </c>
       <c r="J25" s="19" t="e">
-        <f t="shared" ref="J25:N25" si="18">+J7/J5</f>
+        <f t="shared" ref="J25:N25" si="26">+J7/J5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="19" t="e">
-        <f t="shared" si="18"/>
+      <c r="K25" s="19">
+        <f t="shared" si="26"/>
+        <v>0.49368701073879573</v>
+      </c>
+      <c r="L25" s="19">
+        <f t="shared" si="26"/>
+        <v>0.50949377652023153</v>
+      </c>
+      <c r="M25" s="19" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="19">
-        <f t="shared" si="18"/>
-        <v>0.50949377652023153</v>
-      </c>
-      <c r="M25" s="19" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="N25" s="19" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O25" s="3"/>
@@ -2070,52 +2162,52 @@
       <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="19" t="e">
-        <f t="shared" ref="C26:H26" si="19">+C10/C5</f>
+      <c r="C26" s="19">
+        <f t="shared" ref="C26:H26" si="27">+C10/C5</f>
+        <v>-0.14122264384424346</v>
+      </c>
+      <c r="D26" s="19">
+        <f t="shared" si="27"/>
+        <v>5.7741978211199078E-2</v>
+      </c>
+      <c r="E26" s="19">
+        <f t="shared" si="27"/>
+        <v>0.24695693323076859</v>
+      </c>
+      <c r="F26" s="19" t="e">
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="19">
-        <f t="shared" si="19"/>
-        <v>-0.14122264384424346</v>
-      </c>
-      <c r="E26" s="19">
-        <f t="shared" si="19"/>
-        <v>0.24695693323076859</v>
-      </c>
-      <c r="F26" s="19" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="19" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+      <c r="G26" s="19">
+        <f t="shared" si="27"/>
+        <v>-4.3876033343709972E-2</v>
       </c>
       <c r="H26" s="19">
-        <f t="shared" si="19"/>
-        <v>-4.3876033343709972E-2</v>
+        <f t="shared" si="27"/>
+        <v>7.7062926959382452E-2</v>
       </c>
       <c r="I26" s="19">
         <f>+I10/I5</f>
         <v>0.26484079431467145</v>
       </c>
       <c r="J26" s="19" t="e">
-        <f t="shared" ref="J26:N26" si="20">+J10/J5</f>
+        <f t="shared" ref="J26:N26" si="28">+J10/J5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="19" t="e">
-        <f t="shared" si="20"/>
+      <c r="K26" s="19">
+        <f t="shared" si="28"/>
+        <v>-6.4091629981527343E-2</v>
+      </c>
+      <c r="L26" s="19">
+        <f t="shared" si="28"/>
+        <v>7.7068455332125113E-2</v>
+      </c>
+      <c r="M26" s="19" t="e">
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="19">
-        <f t="shared" si="20"/>
-        <v>7.7068455332125113E-2</v>
-      </c>
-      <c r="M26" s="19" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="N26" s="19" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="3"/>
@@ -2138,52 +2230,52 @@
       <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="19" t="e">
-        <f t="shared" ref="C27:H27" si="21">+C15/C14</f>
+      <c r="C27" s="19">
+        <f t="shared" ref="C27:H27" si="29">+C15/C14</f>
+        <v>0.19535189968670189</v>
+      </c>
+      <c r="D27" s="19">
+        <f t="shared" si="29"/>
+        <v>0.373669075930675</v>
+      </c>
+      <c r="E27" s="19">
+        <f t="shared" si="29"/>
+        <v>0.68727088526600633</v>
+      </c>
+      <c r="F27" s="19" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="19">
-        <f t="shared" si="21"/>
-        <v>0.19535189968670189</v>
-      </c>
-      <c r="E27" s="19">
-        <f t="shared" si="21"/>
-        <v>0.68727088526600633</v>
-      </c>
-      <c r="F27" s="19" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="19" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+      <c r="G27" s="19">
+        <f t="shared" si="29"/>
+        <v>0.38565704533649942</v>
       </c>
       <c r="H27" s="19">
-        <f t="shared" si="21"/>
-        <v>0.38565704533649942</v>
+        <f t="shared" si="29"/>
+        <v>0.15452605400682198</v>
       </c>
       <c r="I27" s="19">
         <f>+I15/I14</f>
         <v>0.22547018005813252</v>
       </c>
       <c r="J27" s="19" t="e">
-        <f t="shared" ref="J27:N27" si="22">+J15/J14</f>
+        <f t="shared" ref="J27:N27" si="30">+J15/J14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="19" t="e">
-        <f t="shared" si="22"/>
+      <c r="K27" s="19">
+        <f t="shared" si="30"/>
+        <v>0.38542533605709839</v>
+      </c>
+      <c r="L27" s="19">
+        <f t="shared" si="30"/>
+        <v>0.25761596770861461</v>
+      </c>
+      <c r="M27" s="19" t="e">
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L27" s="19">
-        <f t="shared" si="22"/>
-        <v>0.25761596770861461</v>
-      </c>
-      <c r="M27" s="19" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="N27" s="19" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="3"/>
